--- a/Input/Samling.xlsx
+++ b/Input/Samling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKF\Documents\Matematik-Okonomi\5. Ar\2. Semester\Master-Thesis\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF8B08F-A510-4C2A-9006-9B8F5ACD4D1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB02AC0-978C-45F9-AE86-BD39EFFCB291}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{3741E5F2-D768-457C-87FC-7839950FE67D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{3741E5F2-D768-457C-87FC-7839950FE67D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>caldt</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>t90y</t>
+  </si>
+  <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>hml</t>
+  </si>
+  <si>
+    <t>smb</t>
   </si>
 </sst>
 </file>
@@ -490,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CF90C-587D-451D-99A9-A16F3095B1C4}">
-  <dimension ref="A1:R260"/>
+  <dimension ref="A1:U260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +560,17 @@
       <c r="R1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>19540630</v>
       </c>
@@ -607,8 +625,17 @@
       <c r="R2">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>2.62</v>
+      </c>
+      <c r="T2">
+        <v>0.68666666666666698</v>
+      </c>
+      <c r="U2">
+        <v>-0.89333333333333298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19540930</v>
       </c>
@@ -663,8 +690,17 @@
       <c r="R3">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>2.63</v>
+      </c>
+      <c r="T3">
+        <v>1.13666666666667</v>
+      </c>
+      <c r="U3">
+        <v>0.396666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19541231</v>
       </c>
@@ -719,8 +755,17 @@
       <c r="R4">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>2.77</v>
+      </c>
+      <c r="T4">
+        <v>3.5966666666666698</v>
+      </c>
+      <c r="U4">
+        <v>3.6666666666666702E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19550331</v>
       </c>
@@ -775,8 +820,17 @@
       <c r="R5">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>2.96</v>
+      </c>
+      <c r="T5">
+        <v>1.5833333333333299</v>
+      </c>
+      <c r="U5">
+        <v>0.37666666666666698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19550630</v>
       </c>
@@ -831,8 +885,17 @@
       <c r="R6">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>3.22</v>
+      </c>
+      <c r="T6">
+        <v>0.62333333333333296</v>
+      </c>
+      <c r="U6">
+        <v>-2.2433333333333301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19550930</v>
       </c>
@@ -887,8 +950,17 @@
       <c r="R7">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>3.44</v>
+      </c>
+      <c r="T7">
+        <v>0.05</v>
+      </c>
+      <c r="U7">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19551230</v>
       </c>
@@ -943,8 +1015,17 @@
       <c r="R8">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>3.62</v>
+      </c>
+      <c r="T8">
+        <v>-0.59</v>
+      </c>
+      <c r="U8">
+        <v>0.37333333333333302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19560329</v>
       </c>
@@ -999,8 +1080,17 @@
       <c r="R9">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>3.69</v>
+      </c>
+      <c r="T9">
+        <v>0.15</v>
+      </c>
+      <c r="U9">
+        <v>-1.0066666666666699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19560629</v>
       </c>
@@ -1055,8 +1145,17 @@
       <c r="R10">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>3.6</v>
+      </c>
+      <c r="T10">
+        <v>-0.94333333333333302</v>
+      </c>
+      <c r="U10">
+        <v>3.6666666666666702E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19560928</v>
       </c>
@@ -1111,8 +1210,17 @@
       <c r="R11">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>3.46</v>
+      </c>
+      <c r="T11">
+        <v>0.35666666666666702</v>
+      </c>
+      <c r="U11">
+        <v>0.59333333333333305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19561231</v>
       </c>
@@ -1167,8 +1275,17 @@
       <c r="R12">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>3.41</v>
+      </c>
+      <c r="T12">
+        <v>-0.12666666666666701</v>
+      </c>
+      <c r="U12">
+        <v>-0.11333333333333299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19570329</v>
       </c>
@@ -1223,8 +1340,17 @@
       <c r="R13">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>3.4</v>
+      </c>
+      <c r="T13">
+        <v>0.52666666666666695</v>
+      </c>
+      <c r="U13">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19570627</v>
       </c>
@@ -1279,8 +1405,17 @@
       <c r="R14">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>3.42</v>
+      </c>
+      <c r="T14">
+        <v>-1.18333333333333</v>
+      </c>
+      <c r="U14">
+        <v>-0.706666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19570930</v>
       </c>
@@ -1335,8 +1470,17 @@
       <c r="R15">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>3.47</v>
+      </c>
+      <c r="T15">
+        <v>0.27</v>
+      </c>
+      <c r="U15">
+        <v>-0.206666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19571231</v>
       </c>
@@ -1391,8 +1535,17 @@
       <c r="R16">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>3.37</v>
+      </c>
+      <c r="T16">
+        <v>-2.1466666666666701</v>
+      </c>
+      <c r="U16">
+        <v>-1.0166666666666699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19580331</v>
       </c>
@@ -1447,8 +1600,17 @@
       <c r="R17">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>3.14</v>
+      </c>
+      <c r="T17">
+        <v>1.1966666666666701</v>
+      </c>
+      <c r="U17">
+        <v>1.8966666666666701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19580630</v>
       </c>
@@ -1503,8 +1665,17 @@
       <c r="R18">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>2.93</v>
+      </c>
+      <c r="T18">
+        <v>0.53666666666666696</v>
+      </c>
+      <c r="U18">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19580930</v>
       </c>
@@ -1559,8 +1730,17 @@
       <c r="R19">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>2.88</v>
+      </c>
+      <c r="T19">
+        <v>2.12333333333333</v>
+      </c>
+      <c r="U19">
+        <v>0.60333333333333306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19581231</v>
       </c>
@@ -1615,8 +1795,17 @@
       <c r="R20">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>2.89</v>
+      </c>
+      <c r="T20">
+        <v>-0.84</v>
+      </c>
+      <c r="U20">
+        <v>0.37333333333333302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19590331</v>
       </c>
@@ -1671,8 +1860,17 @@
       <c r="R21">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>3.11</v>
+      </c>
+      <c r="T21">
+        <v>1.2266666666666699</v>
+      </c>
+      <c r="U21">
+        <v>1.9966666666666699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19590630</v>
       </c>
@@ -1727,8 +1925,17 @@
       <c r="R22">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>3.4</v>
+      </c>
+      <c r="T22">
+        <v>0.66</v>
+      </c>
+      <c r="U22">
+        <v>-0.68333333333333302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19590930</v>
       </c>
@@ -1783,8 +1990,17 @@
       <c r="R23">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>3.43</v>
+      </c>
+      <c r="T23">
+        <v>0.42333333333333301</v>
+      </c>
+      <c r="U23">
+        <v>-0.396666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19591231</v>
       </c>
@@ -1839,8 +2055,17 @@
       <c r="R24">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>3.39</v>
+      </c>
+      <c r="T24">
+        <v>-1.7833333333333301</v>
+      </c>
+      <c r="U24">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19600331</v>
       </c>
@@ -1895,8 +2120,17 @@
       <c r="R25">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>3.39</v>
+      </c>
+      <c r="T25">
+        <v>-0.70333333333333303</v>
+      </c>
+      <c r="U25">
+        <v>0.69666666666666699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19600630</v>
       </c>
@@ -1951,8 +2185,17 @@
       <c r="R26">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>3.26</v>
+      </c>
+      <c r="T26">
+        <v>-2.11</v>
+      </c>
+      <c r="U26">
+        <v>0.43333333333333302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19600930</v>
       </c>
@@ -2007,8 +2250,17 @@
       <c r="R27">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>3.27</v>
+      </c>
+      <c r="T27">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U27">
+        <v>-0.24333333333333301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19601230</v>
       </c>
@@ -2063,8 +2315,17 @@
       <c r="R28">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>3.27</v>
+      </c>
+      <c r="T28">
+        <v>-0.21333333333333299</v>
+      </c>
+      <c r="U28">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19610330</v>
       </c>
@@ -2119,8 +2380,17 @@
       <c r="R29">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>3.09</v>
+      </c>
+      <c r="T29">
+        <v>0.73</v>
+      </c>
+      <c r="U29">
+        <v>2.6366666666666698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19610630</v>
       </c>
@@ -2175,8 +2445,17 @@
       <c r="R30">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>3.03</v>
+      </c>
+      <c r="T30">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="U30">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19610929</v>
       </c>
@@ -2231,8 +2510,17 @@
       <c r="R31">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>3.05</v>
+      </c>
+      <c r="T31">
+        <v>-0.32333333333333297</v>
+      </c>
+      <c r="U31">
+        <v>-1.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19611229</v>
       </c>
@@ -2287,8 +2575,17 @@
       <c r="R32">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>3.19</v>
+      </c>
+      <c r="T32">
+        <v>0.25333333333333302</v>
+      </c>
+      <c r="U32">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19620330</v>
       </c>
@@ -2343,8 +2640,17 @@
       <c r="R33">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>3.37</v>
+      </c>
+      <c r="T33">
+        <v>1.5033333333333301</v>
+      </c>
+      <c r="U33">
+        <v>0.38333333333333303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19620629</v>
       </c>
@@ -2399,8 +2705,17 @@
       <c r="R34">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>3.47</v>
+      </c>
+      <c r="T34">
+        <v>1.7833333333333301</v>
+      </c>
+      <c r="U34">
+        <v>-1.5266666666666699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>19620928</v>
       </c>
@@ -2455,8 +2770,17 @@
       <c r="R35">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>3.53</v>
+      </c>
+      <c r="T35">
+        <v>-1.13333333333333</v>
+      </c>
+      <c r="U35">
+        <v>9.6666666666666595E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19621231</v>
       </c>
@@ -2511,8 +2835,17 @@
       <c r="R36">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>3.67</v>
+      </c>
+      <c r="T36">
+        <v>0.87666666666666704</v>
+      </c>
+      <c r="U36">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19630329</v>
       </c>
@@ -2567,8 +2900,17 @@
       <c r="R37">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>3.71</v>
+      </c>
+      <c r="T37">
+        <v>2.19</v>
+      </c>
+      <c r="U37">
+        <v>0.31333333333333302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19630628</v>
       </c>
@@ -2623,8 +2965,17 @@
       <c r="R38">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>3.84</v>
+      </c>
+      <c r="T38">
+        <v>1.40333333333333</v>
+      </c>
+      <c r="U38">
+        <v>-0.146666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19630930</v>
       </c>
@@ -2679,8 +3030,17 @@
       <c r="R39">
         <v>3.52</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>3.96</v>
+      </c>
+      <c r="T39">
+        <v>0.34</v>
+      </c>
+      <c r="U39">
+        <v>-0.60333333333333306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19631231</v>
       </c>
@@ -2735,8 +3095,17 @@
       <c r="R40">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="T40">
+        <v>0.49666666666666698</v>
+      </c>
+      <c r="U40">
+        <v>-1.21333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19640331</v>
       </c>
@@ -2791,8 +3160,17 @@
       <c r="R41">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>4.18</v>
+      </c>
+      <c r="T41">
+        <v>2.58</v>
+      </c>
+      <c r="U41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19640630</v>
       </c>
@@ -2847,8 +3225,17 @@
       <c r="R42">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>4.33</v>
+      </c>
+      <c r="T42">
+        <v>0.70333333333333303</v>
+      </c>
+      <c r="U42">
+        <v>-0.84333333333333305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>19640930</v>
       </c>
@@ -2903,8 +3290,17 @@
       <c r="R43">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>4.47</v>
+      </c>
+      <c r="T43">
+        <v>0.80666666666666698</v>
+      </c>
+      <c r="U43">
+        <v>-4.6666666666666697E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19641231</v>
       </c>
@@ -2959,8 +3355,17 @@
       <c r="R44">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>4.55</v>
+      </c>
+      <c r="T44">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="U44">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19650331</v>
       </c>
@@ -3015,8 +3420,17 @@
       <c r="R45">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>4.68</v>
+      </c>
+      <c r="T45">
+        <v>0.49666666666666698</v>
+      </c>
+      <c r="U45">
+        <v>2.6566666666666698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19650630</v>
       </c>
@@ -3071,8 +3485,17 @@
       <c r="R46">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>4.84</v>
+      </c>
+      <c r="T46">
+        <v>-0.123333333333333</v>
+      </c>
+      <c r="U46">
+        <v>-1.03666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19650930</v>
       </c>
@@ -3127,8 +3550,17 @@
       <c r="R47">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="T47">
+        <v>0.37333333333333302</v>
+      </c>
+      <c r="U47">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19651231</v>
       </c>
@@ -3183,8 +3615,17 @@
       <c r="R48">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>5.19</v>
+      </c>
+      <c r="T48">
+        <v>1.2266666666666699</v>
+      </c>
+      <c r="U48">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19660331</v>
       </c>
@@ -3239,8 +3680,17 @@
       <c r="R49">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>5.34</v>
+      </c>
+      <c r="T49">
+        <v>0.56333333333333302</v>
+      </c>
+      <c r="U49">
+        <v>3.12333333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19660630</v>
       </c>
@@ -3295,8 +3745,17 @@
       <c r="R50">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>5.46</v>
+      </c>
+      <c r="T50">
+        <v>-0.53</v>
+      </c>
+      <c r="U50">
+        <v>-7.6666666666666702E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19660930</v>
       </c>
@@ -3351,8 +3810,17 @@
       <c r="R51">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>5.51</v>
+      </c>
+      <c r="T51">
+        <v>0.65333333333333299</v>
+      </c>
+      <c r="U51">
+        <v>-1.58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>19661230</v>
       </c>
@@ -3407,8 +3875,17 @@
       <c r="R52">
         <v>4.26</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>5.55</v>
+      </c>
+      <c r="T52">
+        <v>-0.93666666666666698</v>
+      </c>
+      <c r="U52">
+        <v>-0.18666666666666701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19670331</v>
       </c>
@@ -3463,8 +3940,17 @@
       <c r="R53">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>5.45</v>
+      </c>
+      <c r="T53">
+        <v>0.12</v>
+      </c>
+      <c r="U53">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>19670630</v>
       </c>
@@ -3519,8 +4005,17 @@
       <c r="R54">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>5.33</v>
+      </c>
+      <c r="T54">
+        <v>-0.293333333333333</v>
+      </c>
+      <c r="U54">
+        <v>2.8533333333333299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19670929</v>
       </c>
@@ -3575,8 +4070,17 @@
       <c r="R55">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>5.3</v>
+      </c>
+      <c r="T55">
+        <v>0.54666666666666697</v>
+      </c>
+      <c r="U55">
+        <v>2.2166666666666699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>19671229</v>
       </c>
@@ -3631,8 +4135,17 @@
       <c r="R56">
         <v>5.17</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>5.33</v>
+      </c>
+      <c r="T56">
+        <v>-1.83</v>
+      </c>
+      <c r="U56">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>19680329</v>
       </c>
@@ -3687,8 +4200,17 @@
       <c r="R57">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>5.44</v>
+      </c>
+      <c r="T57">
+        <v>1.7766666666666699</v>
+      </c>
+      <c r="U57">
+        <v>-0.10666666666666701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>19680628</v>
       </c>
@@ -3743,8 +4265,17 @@
       <c r="R58">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>5.57</v>
+      </c>
+      <c r="T58">
+        <v>0.16</v>
+      </c>
+      <c r="U58">
+        <v>3.9966666666666701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>19680930</v>
       </c>
@@ -3799,8 +4330,17 @@
       <c r="R59">
         <v>5.96</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>5.66</v>
+      </c>
+      <c r="T59">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="U59">
+        <v>1.2666666666666699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>19681231</v>
       </c>
@@ -3855,8 +4395,17 @@
       <c r="R60">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>5.76</v>
+      </c>
+      <c r="T60">
+        <v>0.67</v>
+      </c>
+      <c r="U60">
+        <v>1.7766666666666699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19690328</v>
       </c>
@@ -3911,8 +4460,17 @@
       <c r="R61">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>5.82</v>
+      </c>
+      <c r="T61">
+        <v>0.71</v>
+      </c>
+      <c r="U61">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>19690630</v>
       </c>
@@ -3967,8 +4525,17 @@
       <c r="R62">
         <v>7.09</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>5.84</v>
+      </c>
+      <c r="T62">
+        <v>-0.11</v>
+      </c>
+      <c r="U62">
+        <v>-2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>19690930</v>
       </c>
@@ -4023,8 +4590,17 @@
       <c r="R63">
         <v>7.82</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>5.89</v>
+      </c>
+      <c r="T63">
+        <v>-1.88</v>
+      </c>
+      <c r="U63">
+        <v>-0.35666666666666702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19691231</v>
       </c>
@@ -4079,8 +4655,17 @@
       <c r="R64">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>5.78</v>
+      </c>
+      <c r="T64">
+        <v>-2.4433333333333298</v>
+      </c>
+      <c r="U64">
+        <v>-0.79666666666666697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>19700331</v>
       </c>
@@ -4135,8 +4720,17 @@
       <c r="R65">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>5.63</v>
+      </c>
+      <c r="T65">
+        <v>3.7766666666666699</v>
+      </c>
+      <c r="U65">
+        <v>-0.60666666666666702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>19700630</v>
       </c>
@@ -4191,8 +4785,17 @@
       <c r="R66">
         <v>6.12</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>5.52</v>
+      </c>
+      <c r="T66">
+        <v>3.62</v>
+      </c>
+      <c r="U66">
+        <v>-4.2633333333333301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>19700930</v>
       </c>
@@ -4247,8 +4850,17 @@
       <c r="R67">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>5.36</v>
+      </c>
+      <c r="T67">
+        <v>-1.1966666666666701</v>
+      </c>
+      <c r="U67">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>19701231</v>
       </c>
@@ -4303,8 +4915,17 @@
       <c r="R68">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>5.13</v>
+      </c>
+      <c r="T68">
+        <v>0.97</v>
+      </c>
+      <c r="U68">
+        <v>-1.7933333333333299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19710331</v>
       </c>
@@ -4359,8 +4980,17 @@
       <c r="R69">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>5.22</v>
+      </c>
+      <c r="T69">
+        <v>-1.31666666666667</v>
+      </c>
+      <c r="U69">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>19710630</v>
       </c>
@@ -4415,8 +5045,17 @@
       <c r="R70">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>5.32</v>
+      </c>
+      <c r="T70">
+        <v>-0.90666666666666695</v>
+      </c>
+      <c r="U70">
+        <v>-1.0033333333333301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>19710930</v>
       </c>
@@ -4471,8 +5110,17 @@
       <c r="R71">
         <v>4.01</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>5.43</v>
+      </c>
+      <c r="T71">
+        <v>-0.04</v>
+      </c>
+      <c r="U71">
+        <v>-0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19711231</v>
       </c>
@@ -4527,8 +5175,17 @@
       <c r="R72">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>5.7</v>
+      </c>
+      <c r="T72">
+        <v>-0.82666666666666699</v>
+      </c>
+      <c r="U72">
+        <v>-0.44333333333333302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19720330</v>
       </c>
@@ -4583,8 +5240,17 @@
       <c r="R73">
         <v>3.91</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>5.81</v>
+      </c>
+      <c r="T73">
+        <v>-0.83333333333333304</v>
+      </c>
+      <c r="U73">
+        <v>2.4066666666666698</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>19720630</v>
       </c>
@@ -4639,8 +5305,17 @@
       <c r="R74">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>5.97</v>
+      </c>
+      <c r="T74">
+        <v>-1.6566666666666701</v>
+      </c>
+      <c r="U74">
+        <v>-0.81666666666666698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19720929</v>
       </c>
@@ -4695,8 +5370,17 @@
       <c r="R75">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>6.14</v>
+      </c>
+      <c r="T75">
+        <v>1.98</v>
+      </c>
+      <c r="U75">
+        <v>-3.2166666666666699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>19721229</v>
       </c>
@@ -4751,8 +5435,17 @@
       <c r="R76">
         <v>6.09</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>6.42</v>
+      </c>
+      <c r="T76">
+        <v>1.28666666666667</v>
+      </c>
+      <c r="U76">
+        <v>-1.90333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19730330</v>
       </c>
@@ -4807,8 +5500,17 @@
       <c r="R77">
         <v>7.19</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>6.8</v>
+      </c>
+      <c r="T77">
+        <v>2.3866666666666698</v>
+      </c>
+      <c r="U77">
+        <v>-3.43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>19730629</v>
       </c>
@@ -4863,8 +5565,17 @@
       <c r="R78">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>7.23</v>
+      </c>
+      <c r="T78">
+        <v>2.4466666666666699</v>
+      </c>
+      <c r="U78">
+        <v>-4.3533333333333299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>19730928</v>
       </c>
@@ -4919,8 +5630,17 @@
       <c r="R79">
         <v>7.45</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>7.69</v>
+      </c>
+      <c r="T79">
+        <v>-0.663333333333333</v>
+      </c>
+      <c r="U79">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>19731231</v>
       </c>
@@ -4975,8 +5695,17 @@
       <c r="R80">
         <v>7.96</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <v>8.16</v>
+      </c>
+      <c r="T80">
+        <v>3.29</v>
+      </c>
+      <c r="U80">
+        <v>-4.4066666666666698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>19740329</v>
       </c>
@@ -5031,8 +5760,17 @@
       <c r="R81">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <v>8.36</v>
+      </c>
+      <c r="T81">
+        <v>2.8066666666666702</v>
+      </c>
+      <c r="U81">
+        <v>4.10666666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>19740628</v>
       </c>
@@ -5087,8 +5825,17 @@
       <c r="R82">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <v>8.74</v>
+      </c>
+      <c r="T82">
+        <v>-6.3333333333333297E-2</v>
+      </c>
+      <c r="U82">
+        <v>-1.30666666666667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>19740930</v>
       </c>
@@ -5143,8 +5890,17 @@
       <c r="R83">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <v>9.11</v>
+      </c>
+      <c r="T83">
+        <v>4.3766666666666696</v>
+      </c>
+      <c r="U83">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>19741231</v>
       </c>
@@ -5199,8 +5955,17 @@
       <c r="R84">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <v>8.89</v>
+      </c>
+      <c r="T84">
+        <v>-3.3833333333333302</v>
+      </c>
+      <c r="U84">
+        <v>-3.1733333333333298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>19750331</v>
       </c>
@@ -5255,8 +6020,17 @@
       <c r="R85">
         <v>5.34</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="T85">
+        <v>2.12333333333333</v>
+      </c>
+      <c r="U85">
+        <v>4.9733333333333301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>19750630</v>
       </c>
@@ -5311,8 +6085,17 @@
       <c r="R86">
         <v>6.42</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <v>7.96</v>
+      </c>
+      <c r="T86">
+        <v>-1.27</v>
+      </c>
+      <c r="U86">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>19750930</v>
       </c>
@@ -5367,8 +6150,17 @@
       <c r="R87">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>7.76</v>
+      </c>
+      <c r="T87">
+        <v>0.38</v>
+      </c>
+      <c r="U87">
+        <v>-0.21333333333333299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>19751231</v>
       </c>
@@ -5423,8 +6215,17 @@
       <c r="R88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <v>7.96</v>
+      </c>
+      <c r="T88">
+        <v>1.35</v>
+      </c>
+      <c r="U88">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>19760331</v>
       </c>
@@ -5479,8 +6280,17 @@
       <c r="R89">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <v>8.66</v>
+      </c>
+      <c r="T89">
+        <v>4.7733333333333299</v>
+      </c>
+      <c r="U89">
+        <v>3.5533333333333301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>19760630</v>
       </c>
@@ -5535,8 +6345,17 @@
       <c r="R90">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <v>9.25</v>
+      </c>
+      <c r="T90">
+        <v>-0.233333333333333</v>
+      </c>
+      <c r="U90">
+        <v>-0.87333333333333296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>19760930</v>
       </c>
@@ -5591,8 +6410,17 @@
       <c r="R91">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="T91">
+        <v>0.74666666666666703</v>
+      </c>
+      <c r="U91">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19761231</v>
       </c>
@@ -5647,8 +6475,17 @@
       <c r="R92">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <v>9.91</v>
+      </c>
+      <c r="T92">
+        <v>1.2</v>
+      </c>
+      <c r="U92">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19770331</v>
       </c>
@@ -5703,8 +6540,17 @@
       <c r="R93">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <v>10.08</v>
+      </c>
+      <c r="T93">
+        <v>1.9266666666666701</v>
+      </c>
+      <c r="U93">
+        <v>2.2833333333333301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19770630</v>
       </c>
@@ -5759,8 +6605,17 @@
       <c r="R94">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <v>10.42</v>
+      </c>
+      <c r="T94">
+        <v>1.2166666666666699</v>
+      </c>
+      <c r="U94">
+        <v>1.0633333333333299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19770930</v>
       </c>
@@ -5815,8 +6670,17 @@
       <c r="R95">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <v>10.71</v>
+      </c>
+      <c r="T95">
+        <v>-1.29</v>
+      </c>
+      <c r="U95">
+        <v>1.6966666666666701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19771230</v>
       </c>
@@ -5871,8 +6735,17 @@
       <c r="R96">
         <v>6.29</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <v>10.89</v>
+      </c>
+      <c r="T96">
+        <v>0.55333333333333301</v>
+      </c>
+      <c r="U96">
+        <v>2.1133333333333302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19780331</v>
       </c>
@@ -5927,8 +6800,17 @@
       <c r="R97">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <v>10.92</v>
+      </c>
+      <c r="T97">
+        <v>1.7566666666666699</v>
+      </c>
+      <c r="U97">
+        <v>3.0966666666666698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19780630</v>
       </c>
@@ -5983,8 +6865,17 @@
       <c r="R98">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98">
+        <v>11.23</v>
+      </c>
+      <c r="T98">
+        <v>-1.19</v>
+      </c>
+      <c r="U98">
+        <v>2.2166666666666699</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>19780929</v>
       </c>
@@ -6039,8 +6930,17 @@
       <c r="R99">
         <v>9.08</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <v>11.57</v>
+      </c>
+      <c r="T99">
+        <v>0.1</v>
+      </c>
+      <c r="U99">
+        <v>1.64333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>19781229</v>
       </c>
@@ -6095,8 +6995,17 @@
       <c r="R100">
         <v>9.48</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <v>12.33</v>
+      </c>
+      <c r="T100">
+        <v>-1.0166666666666699</v>
+      </c>
+      <c r="U100">
+        <v>-1.87666666666667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>19790330</v>
       </c>
@@ -6151,8 +7060,17 @@
       <c r="R101">
         <v>9.06</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <v>13.3</v>
+      </c>
+      <c r="T101">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="U101">
+        <v>2.43333333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>19790629</v>
       </c>
@@ -6207,8 +7125,17 @@
       <c r="R102">
         <v>10.26</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <v>13.98</v>
+      </c>
+      <c r="T102">
+        <v>1.2833333333333301</v>
+      </c>
+      <c r="U102">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>19790928</v>
       </c>
@@ -6263,8 +7190,17 @@
       <c r="R103">
         <v>12.04</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <v>14.63</v>
+      </c>
+      <c r="T103">
+        <v>-0.24</v>
+      </c>
+      <c r="U103">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>19791231</v>
       </c>
@@ -6319,8 +7255,17 @@
       <c r="R104">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <v>14.86</v>
+      </c>
+      <c r="T104">
+        <v>-2.3633333333333302</v>
+      </c>
+      <c r="U104">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>19800331</v>
       </c>
@@ -6375,8 +7320,17 @@
       <c r="R105">
         <v>7.07</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <v>15.29</v>
+      </c>
+      <c r="T105">
+        <v>0.45333333333333298</v>
+      </c>
+      <c r="U105">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>19800630</v>
       </c>
@@ -6431,8 +7385,17 @@
       <c r="R106">
         <v>10.27</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <v>14.94</v>
+      </c>
+      <c r="T106">
+        <v>0.18666666666666701</v>
+      </c>
+      <c r="U106">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>19800930</v>
       </c>
@@ -6487,8 +7450,17 @@
       <c r="R107">
         <v>15.49</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <v>14.64</v>
+      </c>
+      <c r="T107">
+        <v>-4.5766666666666698</v>
+      </c>
+      <c r="U107">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>19801231</v>
       </c>
@@ -6543,8 +7515,17 @@
       <c r="R108">
         <v>13.36</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108">
+        <v>14.82</v>
+      </c>
+      <c r="T108">
+        <v>-2.8033333333333301</v>
+      </c>
+      <c r="U108">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>19810331</v>
       </c>
@@ -6599,8 +7580,17 @@
       <c r="R109">
         <v>14.73</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <v>14.58</v>
+      </c>
+      <c r="T109">
+        <v>2.8266666666666702</v>
+      </c>
+      <c r="U109">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>19810630</v>
       </c>
@@ -6655,8 +7645,17 @@
       <c r="R110">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <v>15.01</v>
+      </c>
+      <c r="T110">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U110">
+        <v>1.85666666666667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>19810930</v>
       </c>
@@ -6711,8 +7710,17 @@
       <c r="R111">
         <v>10.85</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <v>15.27</v>
+      </c>
+      <c r="T111">
+        <v>3.12666666666667</v>
+      </c>
+      <c r="U111">
+        <v>-2.2633333333333301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19811231</v>
       </c>
@@ -6767,8 +7775,17 @@
       <c r="R112">
         <v>12.68</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112">
+        <v>15.36</v>
+      </c>
+      <c r="T112">
+        <v>-0.52333333333333298</v>
+      </c>
+      <c r="U112">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>19820331</v>
       </c>
@@ -6823,8 +7840,17 @@
       <c r="R113">
         <v>12.47</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113">
+        <v>14.81</v>
+      </c>
+      <c r="T113">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="U113">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19820630</v>
       </c>
@@ -6879,8 +7905,17 @@
       <c r="R114">
         <v>7.92</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114">
+        <v>14.17</v>
+      </c>
+      <c r="T114">
+        <v>0.19</v>
+      </c>
+      <c r="U114">
+        <v>0.52666666666666695</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>19820930</v>
       </c>
@@ -6935,8 +7970,17 @@
       <c r="R115">
         <v>7.94</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115">
+        <v>13.56</v>
+      </c>
+      <c r="T115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U115">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>19821231</v>
       </c>
@@ -6991,8 +8035,17 @@
       <c r="R116">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116">
+        <v>12.64</v>
+      </c>
+      <c r="T116">
+        <v>-1.87666666666667</v>
+      </c>
+      <c r="U116">
+        <v>2.3133333333333299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>19830331</v>
       </c>
@@ -7047,8 +8100,17 @@
       <c r="R117">
         <v>8.7899999999999991</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117">
+        <v>12.42</v>
+      </c>
+      <c r="T117">
+        <v>0.62666666666666704</v>
+      </c>
+      <c r="U117">
+        <v>2.56666666666667</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>19830630</v>
       </c>
@@ -7103,8 +8165,17 @@
       <c r="R118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118">
+        <v>12.59</v>
+      </c>
+      <c r="T118">
+        <v>-1.55666666666667</v>
+      </c>
+      <c r="U118">
+        <v>2.5333333333333301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>19830930</v>
       </c>
@@ -7159,8 +8230,17 @@
       <c r="R119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119">
+        <v>13.3</v>
+      </c>
+      <c r="T119">
+        <v>4.0866666666666696</v>
+      </c>
+      <c r="U119">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>19831230</v>
       </c>
@@ -7215,8 +8295,17 @@
       <c r="R120">
         <v>9.52</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <v>14.03</v>
+      </c>
+      <c r="T120">
+        <v>2.0366666666666702</v>
+      </c>
+      <c r="U120">
+        <v>-0.61666666666666703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>19840330</v>
       </c>
@@ -7271,8 +8360,17 @@
       <c r="R121">
         <v>9.8699999999999992</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121">
+        <v>15.26</v>
+      </c>
+      <c r="T121">
+        <v>3.8233333333333301</v>
+      </c>
+      <c r="U121">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>19840629</v>
       </c>
@@ -7327,8 +8425,17 @@
       <c r="R122">
         <v>10.37</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122">
+        <v>16.2</v>
+      </c>
+      <c r="T122">
+        <v>-0.35</v>
+      </c>
+      <c r="U122">
+        <v>-0.49666666666666698</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>19840928</v>
       </c>
@@ -7383,8 +8490,17 @@
       <c r="R123">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="T123">
+        <v>1.32</v>
+      </c>
+      <c r="U123">
+        <v>-0.75333333333333297</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>19841231</v>
       </c>
@@ -7439,8 +8555,17 @@
       <c r="R124">
         <v>8.52</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124">
+        <v>16.64</v>
+      </c>
+      <c r="T124">
+        <v>1.4733333333333301</v>
+      </c>
+      <c r="U124">
+        <v>-0.80666666666666698</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>19850329</v>
       </c>
@@ -7495,8 +8620,17 @@
       <c r="R125">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <v>16.39</v>
+      </c>
+      <c r="T125">
+        <v>-0.483333333333333</v>
+      </c>
+      <c r="U125">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>19850628</v>
       </c>
@@ -7551,8 +8685,17 @@
       <c r="R126">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <v>15.61</v>
+      </c>
+      <c r="T126">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U126">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>19850930</v>
       </c>
@@ -7607,8 +8750,17 @@
       <c r="R127">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127">
+        <v>15.23</v>
+      </c>
+      <c r="T127">
+        <v>0.65666666666666695</v>
+      </c>
+      <c r="U127">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>19851231</v>
       </c>
@@ -7663,8 +8815,17 @@
       <c r="R128">
         <v>6.56</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128">
+        <v>14.61</v>
+      </c>
+      <c r="T128">
+        <v>-1.2066666666666701</v>
+      </c>
+      <c r="U128">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>19860331</v>
       </c>
@@ -7719,8 +8880,17 @@
       <c r="R129">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129">
+        <v>14.52</v>
+      </c>
+      <c r="T129">
+        <v>-0.28333333333333299</v>
+      </c>
+      <c r="U129">
+        <v>1.6666666666666601E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>19860630</v>
       </c>
@@ -7775,8 +8945,17 @@
       <c r="R130">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130">
+        <v>14.71</v>
+      </c>
+      <c r="T130">
+        <v>-0.52</v>
+      </c>
+      <c r="U130">
+        <v>0.20333333333333301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>19860930</v>
       </c>
@@ -7831,8 +9010,17 @@
       <c r="R131">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131">
+        <v>14.85</v>
+      </c>
+      <c r="T131">
+        <v>3.83</v>
+      </c>
+      <c r="U131">
+        <v>-1.7566666666666699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>19861231</v>
       </c>
@@ -7887,8 +9075,17 @@
       <c r="R132">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132">
+        <v>14.48</v>
+      </c>
+      <c r="T132">
+        <v>-0.336666666666667</v>
+      </c>
+      <c r="U132">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>19870331</v>
       </c>
@@ -7943,8 +9140,17 @@
       <c r="R133">
         <v>5.67</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133">
+        <v>15.1</v>
+      </c>
+      <c r="T133">
+        <v>-2.5033333333333299</v>
+      </c>
+      <c r="U133">
+        <v>0.68333333333333302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>19870630</v>
       </c>
@@ -7999,8 +9205,17 @@
       <c r="R134">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134">
+        <v>14.42</v>
+      </c>
+      <c r="T134">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U134">
+        <v>-1.4666666666666699</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>19870930</v>
       </c>
@@ -8055,8 +9270,17 @@
       <c r="R135">
         <v>5.77</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135">
+        <v>15.86</v>
+      </c>
+      <c r="T135">
+        <v>1.3333333333333299E-2</v>
+      </c>
+      <c r="U135">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>19871231</v>
       </c>
@@ -8111,8 +9335,17 @@
       <c r="R136">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136">
+        <v>17.5</v>
+      </c>
+      <c r="T136">
+        <v>0.96</v>
+      </c>
+      <c r="U136">
+        <v>-1.8433333333333299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>19880331</v>
       </c>
@@ -8167,8 +9400,17 @@
       <c r="R137">
         <v>6.46</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137">
+        <v>18.59</v>
+      </c>
+      <c r="T137">
+        <v>1.39</v>
+      </c>
+      <c r="U137">
+        <v>2.9166666666666701</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>19880630</v>
       </c>
@@ -8223,8 +9465,17 @@
       <c r="R138">
         <v>7.24</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138">
+        <v>21.67</v>
+      </c>
+      <c r="T138">
+        <v>0.97333333333333305</v>
+      </c>
+      <c r="U138">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>19880930</v>
       </c>
@@ -8279,8 +9530,17 @@
       <c r="R139">
         <v>8.07</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139">
+        <v>22.73</v>
+      </c>
+      <c r="T139">
+        <v>1.2066666666666701</v>
+      </c>
+      <c r="U139">
+        <v>-0.473333333333333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>19881230</v>
       </c>
@@ -8335,8 +9595,17 @@
       <c r="R140">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <v>23.75</v>
+      </c>
+      <c r="T140">
+        <v>0.46666666666666701</v>
+      </c>
+      <c r="U140">
+        <v>-0.89666666666666694</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>19890331</v>
       </c>
@@ -8391,8 +9660,17 @@
       <c r="R141">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141">
+        <v>24.96</v>
+      </c>
+      <c r="T141">
+        <v>0.61333333333333295</v>
+      </c>
+      <c r="U141">
+        <v>0.45333333333333298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19890630</v>
       </c>
@@ -8447,8 +9725,17 @@
       <c r="R142">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142">
+        <v>25.220000000000002</v>
+      </c>
+      <c r="T142">
+        <v>-2.66666666666667E-2</v>
+      </c>
+      <c r="U142">
+        <v>-0.54666666666666697</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>19890929</v>
       </c>
@@ -8503,8 +9790,17 @@
       <c r="R143">
         <v>7.63</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143">
+        <v>23.689999999999998</v>
+      </c>
+      <c r="T143">
+        <v>-1.15333333333333</v>
+      </c>
+      <c r="U143">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>19891229</v>
       </c>
@@ -8559,8 +9855,17 @@
       <c r="R144">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144">
+        <v>22.87</v>
+      </c>
+      <c r="T144">
+        <v>-0.62333333333333296</v>
+      </c>
+      <c r="U144">
+        <v>-2.31666666666667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>19900330</v>
       </c>
@@ -8615,8 +9920,17 @@
       <c r="R145">
         <v>7.73</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <v>21.669999999999998</v>
+      </c>
+      <c r="T145">
+        <v>-0.473333333333333</v>
+      </c>
+      <c r="U145">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>19900629</v>
       </c>
@@ -8671,8 +9985,17 @@
       <c r="R146">
         <v>7.36</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146">
+        <v>21.259999999999998</v>
+      </c>
+      <c r="T146">
+        <v>-2.7433333333333301</v>
+      </c>
+      <c r="U146">
+        <v>-0.54666666666666697</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>19900928</v>
       </c>
@@ -8727,8 +10050,17 @@
       <c r="R147">
         <v>6.74</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147">
+        <v>21.740000000000002</v>
+      </c>
+      <c r="T147">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="U147">
+        <v>-3.4866666666666699</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>19901231</v>
       </c>
@@ -8783,8 +10115,17 @@
       <c r="R148">
         <v>5.91</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148">
+        <v>21.339999999999996</v>
+      </c>
+      <c r="T148">
+        <v>-1.4933333333333301</v>
+      </c>
+      <c r="U148">
+        <v>-1.46333333333333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19910328</v>
       </c>
@@ -8839,8 +10180,17 @@
       <c r="R149">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149">
+        <v>20.94</v>
+      </c>
+      <c r="T149">
+        <v>-1.20333333333333</v>
+      </c>
+      <c r="U149">
+        <v>3.87666666666667</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>19910628</v>
       </c>
@@ -8895,8 +10245,17 @@
       <c r="R150">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150">
+        <v>19.41</v>
+      </c>
+      <c r="T150">
+        <v>0.68666666666666698</v>
+      </c>
+      <c r="U150">
+        <v>7.6666666666666702E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>19910930</v>
       </c>
@@ -8951,8 +10310,17 @@
       <c r="R151">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151">
+        <v>17.82</v>
+      </c>
+      <c r="T151">
+        <v>-1.01</v>
+      </c>
+      <c r="U151">
+        <v>0.76333333333333298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>19911231</v>
       </c>
@@ -9007,8 +10375,17 @@
       <c r="R152">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152">
+        <v>15.969999999999999</v>
+      </c>
+      <c r="T152">
+        <v>-2.13</v>
+      </c>
+      <c r="U152">
+        <v>-0.60666666666666702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19920331</v>
       </c>
@@ -9063,8 +10440,17 @@
       <c r="R153">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="T153">
+        <v>4.8433333333333302</v>
+      </c>
+      <c r="U153">
+        <v>2.7733333333333299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>19920630</v>
       </c>
@@ -9119,8 +10505,17 @@
       <c r="R154">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154">
+        <v>17.05</v>
+      </c>
+      <c r="T154">
+        <v>2.9966666666666701</v>
+      </c>
+      <c r="U154">
+        <v>-2.94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>19920930</v>
       </c>
@@ -9175,8 +10570,17 @@
       <c r="R155">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155">
+        <v>18.04</v>
+      </c>
+      <c r="T155">
+        <v>-0.59</v>
+      </c>
+      <c r="U155">
+        <v>1.8503717077085901E-17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>19921231</v>
       </c>
@@ -9231,8 +10635,17 @@
       <c r="R156">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156">
+        <v>19.090000000000003</v>
+      </c>
+      <c r="T156">
+        <v>-0.353333333333333</v>
+      </c>
+      <c r="U156">
+        <v>2.4633333333333298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>19930331</v>
       </c>
@@ -9287,8 +10700,17 @@
       <c r="R157">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157">
+        <v>19.84</v>
+      </c>
+      <c r="T157">
+        <v>4.5033333333333303</v>
+      </c>
+      <c r="U157">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>19930630</v>
       </c>
@@ -9343,8 +10765,17 @@
       <c r="R158">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S158">
+        <v>19.330000000000002</v>
+      </c>
+      <c r="T158">
+        <v>0.60666666666666702</v>
+      </c>
+      <c r="U158">
+        <v>0.31666666666666698</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>19930930</v>
       </c>
@@ -9399,8 +10830,17 @@
       <c r="R159">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159">
+        <v>20.41</v>
+      </c>
+      <c r="T159">
+        <v>0.78666666666666696</v>
+      </c>
+      <c r="U159">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>19931231</v>
       </c>
@@ -9455,8 +10895,17 @@
       <c r="R160">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S160">
+        <v>21.89</v>
+      </c>
+      <c r="T160">
+        <v>-0.413333333333333</v>
+      </c>
+      <c r="U160">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>19940331</v>
       </c>
@@ -9511,8 +10960,17 @@
       <c r="R161">
         <v>4.1399999999999997</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S161">
+        <v>22.71</v>
+      </c>
+      <c r="T161">
+        <v>0.64333333333333298</v>
+      </c>
+      <c r="U161">
+        <v>0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>19940630</v>
       </c>
@@ -9567,8 +11025,17 @@
       <c r="R162">
         <v>4.62</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S162">
+        <v>25.2</v>
+      </c>
+      <c r="T162">
+        <v>1.19</v>
+      </c>
+      <c r="U162">
+        <v>-1.12666666666667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>19940930</v>
       </c>
@@ -9623,8 +11090,17 @@
       <c r="R163">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S163">
+        <v>27.330000000000002</v>
+      </c>
+      <c r="T163">
+        <v>-1.36666666666667</v>
+      </c>
+      <c r="U163">
+        <v>0.81666666666666698</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>19941230</v>
       </c>
@@ -9679,8 +11155,17 @@
       <c r="R164">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S164">
+        <v>30.6</v>
+      </c>
+      <c r="T164">
+        <v>-0.71333333333333304</v>
+      </c>
+      <c r="U164">
+        <v>-0.68333333333333302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>19950331</v>
       </c>
@@ -9735,8 +11220,17 @@
       <c r="R165">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S165">
+        <v>32.550000000000004</v>
+      </c>
+      <c r="T165">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="U165">
+        <v>-1.33666666666667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>19950630</v>
       </c>
@@ -9791,8 +11285,17 @@
       <c r="R166">
         <v>5.28</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S166">
+        <v>34.43</v>
+      </c>
+      <c r="T166">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U166">
+        <v>3.00000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>19950929</v>
       </c>
@@ -9847,8 +11350,17 @@
       <c r="R167">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S167">
+        <v>35.18</v>
+      </c>
+      <c r="T167">
+        <v>9.6666666666666706E-2</v>
+      </c>
+      <c r="U167">
+        <v>0.52666666666666695</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>19951229</v>
       </c>
@@ -9903,8 +11415,17 @@
       <c r="R168">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S168">
+        <v>33.96</v>
+      </c>
+      <c r="T168">
+        <v>0.35666666666666702</v>
+      </c>
+      <c r="U168">
+        <v>-1.44333333333333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>19960329</v>
       </c>
@@ -9959,8 +11480,17 @@
       <c r="R169">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S169">
+        <v>34.04</v>
+      </c>
+      <c r="T169">
+        <v>-3.6666666666666597E-2</v>
+      </c>
+      <c r="U169">
+        <v>0.193333333333333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>19960628</v>
       </c>
@@ -10015,8 +11545,17 @@
       <c r="R170">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S170">
+        <v>34.910000000000004</v>
+      </c>
+      <c r="T170">
+        <v>-1.18333333333333</v>
+      </c>
+      <c r="U170">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>19960930</v>
       </c>
@@ -10071,8 +11610,17 @@
       <c r="R171">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S171">
+        <v>36</v>
+      </c>
+      <c r="T171">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U171">
+        <v>-0.80666666666666698</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>19961231</v>
       </c>
@@ -10127,8 +11675,17 @@
       <c r="R172">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S172">
+        <v>38.730000000000004</v>
+      </c>
+      <c r="T172">
+        <v>2.3866666666666698</v>
+      </c>
+      <c r="U172">
+        <v>-1.71333333333333</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>19970331</v>
       </c>
@@ -10183,8 +11740,17 @@
       <c r="R173">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S173">
+        <v>40.24</v>
+      </c>
+      <c r="T173">
+        <v>2.45333333333333</v>
+      </c>
+      <c r="U173">
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>19970630</v>
       </c>
@@ -10239,8 +11805,17 @@
       <c r="R174">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S174">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="T174">
+        <v>-0.90333333333333299</v>
+      </c>
+      <c r="U174">
+        <v>0.18666666666666601</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>19970930</v>
       </c>
@@ -10295,8 +11870,17 @@
       <c r="R175">
         <v>5.16</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S175">
+        <v>40.639999999999993</v>
+      </c>
+      <c r="T175">
+        <v>0.73666666666666702</v>
+      </c>
+      <c r="U175">
+        <v>2.37333333333333</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>19971231</v>
       </c>
@@ -10351,8 +11935,17 @@
       <c r="R176">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S176">
+        <v>39.72</v>
+      </c>
+      <c r="T176">
+        <v>2.0633333333333299</v>
+      </c>
+      <c r="U176">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>19980331</v>
       </c>
@@ -10407,8 +12000,17 @@
       <c r="R177">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S177">
+        <v>39.54</v>
+      </c>
+      <c r="T177">
+        <v>-0.176666666666667</v>
+      </c>
+      <c r="U177">
+        <v>-0.69333333333333302</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>19980630</v>
       </c>
@@ -10463,8 +12065,17 @@
       <c r="R178">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S178">
+        <v>38.97</v>
+      </c>
+      <c r="T178">
+        <v>0.85666666666666702</v>
+      </c>
+      <c r="U178">
+        <v>-2.2333333333333298</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>19980930</v>
       </c>
@@ -10519,8 +12130,17 @@
       <c r="R179">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S179">
+        <v>38.089999999999996</v>
+      </c>
+      <c r="T179">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="U179">
+        <v>-3.5233333333333299</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>19981231</v>
       </c>
@@ -10575,8 +12195,17 @@
       <c r="R180">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S180">
+        <v>37.71</v>
+      </c>
+      <c r="T180">
+        <v>-3.2733333333333299</v>
+      </c>
+      <c r="U180">
+        <v>-0.85666666666666702</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>19990331</v>
       </c>
@@ -10631,8 +12260,17 @@
       <c r="R181">
         <v>4.57</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S181">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="T181">
+        <v>-1.76</v>
+      </c>
+      <c r="U181">
+        <v>-3.0733333333333301</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>19990630</v>
       </c>
@@ -10687,8 +12325,17 @@
       <c r="R182">
         <v>4.68</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S182">
+        <v>41.02</v>
+      </c>
+      <c r="T182">
+        <v>0.44333333333333302</v>
+      </c>
+      <c r="U182">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19990930</v>
       </c>
@@ -10743,8 +12390,17 @@
       <c r="R183">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S183">
+        <v>43.96</v>
+      </c>
+      <c r="T183">
+        <v>-1.82</v>
+      </c>
+      <c r="U183">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>19991231</v>
       </c>
@@ -10799,8 +12455,17 @@
       <c r="R184">
         <v>5.69</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S184">
+        <v>48.17</v>
+      </c>
+      <c r="T184">
+        <v>-6.0433333333333303</v>
+      </c>
+      <c r="U184">
+        <v>2.5133333333333301</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>20000331</v>
       </c>
@@ -10855,8 +12520,17 @@
       <c r="R185">
         <v>5.69</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S185">
+        <v>50.949999999999996</v>
+      </c>
+      <c r="T185">
+        <v>-0.94666666666666699</v>
+      </c>
+      <c r="U185">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>20000630</v>
       </c>
@@ -10911,8 +12585,17 @@
       <c r="R186">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S186">
+        <v>51.92</v>
+      </c>
+      <c r="T186">
+        <v>0.44</v>
+      </c>
+      <c r="U186">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>20000929</v>
       </c>
@@ -10967,8 +12650,17 @@
       <c r="R187">
         <v>5.77</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S187">
+        <v>53.699999999999996</v>
+      </c>
+      <c r="T187">
+        <v>4.51</v>
+      </c>
+      <c r="U187">
+        <v>-1.7433333333333301</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20001229</v>
       </c>
@@ -11023,8 +12715,17 @@
       <c r="R188">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S188">
+        <v>50</v>
+      </c>
+      <c r="T188">
+        <v>8.0933333333333302</v>
+      </c>
+      <c r="U188">
+        <v>-1.87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>20010330</v>
       </c>
@@ -11079,8 +12780,17 @@
       <c r="R189">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S189">
+        <v>45.440000000000005</v>
+      </c>
+      <c r="T189">
+        <v>4.8233333333333297</v>
+      </c>
+      <c r="U189">
+        <v>2.0566666666666702</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20010629</v>
       </c>
@@ -11135,8 +12845,17 @@
       <c r="R190">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S190">
+        <v>36.79</v>
+      </c>
+      <c r="T190">
+        <v>-0.86</v>
+      </c>
+      <c r="U190">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>20010928</v>
       </c>
@@ -11191,8 +12910,17 @@
       <c r="R191">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S191">
+        <v>28.31</v>
+      </c>
+      <c r="T191">
+        <v>3.2233333333333301</v>
+      </c>
+      <c r="U191">
+        <v>-2.6566666666666698</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>20011231</v>
       </c>
@@ -11247,8 +12975,17 @@
       <c r="R192">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S192">
+        <v>24.69</v>
+      </c>
+      <c r="T192">
+        <v>-1.66333333333333</v>
+      </c>
+      <c r="U192">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>20020328</v>
       </c>
@@ -11303,8 +13040,17 @@
       <c r="R193">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S193">
+        <v>24.700000000000003</v>
+      </c>
+      <c r="T193">
+        <v>2.31</v>
+      </c>
+      <c r="U193">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>20020628</v>
       </c>
@@ -11359,8 +13105,17 @@
       <c r="R194">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S194">
+        <v>26.74</v>
+      </c>
+      <c r="T194">
+        <v>1.91</v>
+      </c>
+      <c r="U194">
+        <v>2.3333333333333299</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>20020930</v>
       </c>
@@ -11415,8 +13170,17 @@
       <c r="R195">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S195">
+        <v>30.04</v>
+      </c>
+      <c r="T195">
+        <v>0.13666666666666699</v>
+      </c>
+      <c r="U195">
+        <v>-1.7233333333333301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>20021231</v>
       </c>
@@ -11471,8 +13235,17 @@
       <c r="R196">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S196">
+        <v>27.589999999999996</v>
+      </c>
+      <c r="T196">
+        <v>-1.4466666666666701</v>
+      </c>
+      <c r="U196">
+        <v>-1.6666666666666701E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>20030331</v>
       </c>
@@ -11527,8 +13300,17 @@
       <c r="R197">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S197">
+        <v>30.32</v>
+      </c>
+      <c r="T197">
+        <v>-1.4866666666666699</v>
+      </c>
+      <c r="U197">
+        <v>0.64333333333333298</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>20030630</v>
       </c>
@@ -11583,8 +13365,17 @@
       <c r="R198">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S198">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="T198">
+        <v>0.47666666666666702</v>
+      </c>
+      <c r="U198">
+        <v>2.3066666666666702</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>20030930</v>
       </c>
@@ -11639,8 +13430,17 @@
       <c r="R199">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S199">
+        <v>38.58</v>
+      </c>
+      <c r="T199">
+        <v>0.3</v>
+      </c>
+      <c r="U199">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>20031231</v>
       </c>
@@ -11695,8 +13495,17 @@
       <c r="R200">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S200">
+        <v>48.739999999999995</v>
+      </c>
+      <c r="T200">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U200">
+        <v>0.56666666666666698</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>20040331</v>
       </c>
@@ -11751,8 +13560,17 @@
       <c r="R201">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S201">
+        <v>52</v>
+      </c>
+      <c r="T201">
+        <v>0.89666666666666694</v>
+      </c>
+      <c r="U201">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>20040630</v>
       </c>
@@ -11807,8 +13625,17 @@
       <c r="R202">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S202">
+        <v>56.15</v>
+      </c>
+      <c r="T202">
+        <v>-0.54</v>
+      </c>
+      <c r="U202">
+        <v>-3.3333333333334198E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>20040930</v>
       </c>
@@ -11863,8 +13690,17 @@
       <c r="R203">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S203">
+        <v>57.77</v>
+      </c>
+      <c r="T203">
+        <v>1.63</v>
+      </c>
+      <c r="U203">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>20041231</v>
       </c>
@@ -11919,8 +13755,17 @@
       <c r="R204">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S204">
+        <v>58.55</v>
+      </c>
+      <c r="T204">
+        <v>0.36</v>
+      </c>
+      <c r="U204">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20050331</v>
       </c>
@@ -11975,8 +13820,17 @@
       <c r="R205">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S205">
+        <v>60.22</v>
+      </c>
+      <c r="T205">
+        <v>1.74</v>
+      </c>
+      <c r="U205">
+        <v>-1.12666666666667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>20050630</v>
       </c>
@@ -12031,8 +13885,17 @@
       <c r="R206">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S206">
+        <v>63.26</v>
+      </c>
+      <c r="T206">
+        <v>0.49</v>
+      </c>
+      <c r="U206">
+        <v>0.50666666666666704</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>20050930</v>
       </c>
@@ -12087,8 +13950,17 @@
       <c r="R207">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S207">
+        <v>66.47</v>
+      </c>
+      <c r="T207">
+        <v>0.50666666666666704</v>
+      </c>
+      <c r="U207">
+        <v>0.47666666666666702</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>20051230</v>
       </c>
@@ -12143,8 +14015,17 @@
       <c r="R208">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S208">
+        <v>69.83</v>
+      </c>
+      <c r="T208">
+        <v>-0.176666666666667</v>
+      </c>
+      <c r="U208">
+        <v>-0.25666666666666699</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20060331</v>
       </c>
@@ -12199,8 +14080,17 @@
       <c r="R209">
         <v>4.79</v>
       </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S209">
+        <v>72.67</v>
+      </c>
+      <c r="T209">
+        <v>0.49333333333333301</v>
+      </c>
+      <c r="U209">
+        <v>2.8633333333333302</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20060630</v>
       </c>
@@ -12255,8 +14145,17 @@
       <c r="R210">
         <v>4.8099999999999996</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S210">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="T210">
+        <v>2.0066666666666699</v>
+      </c>
+      <c r="U210">
+        <v>-1.58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>20060929</v>
       </c>
@@ -12311,8 +14210,17 @@
       <c r="R211">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S211">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="T211">
+        <v>0.42333333333333301</v>
+      </c>
+      <c r="U211">
+        <v>-1.51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20061229</v>
       </c>
@@ -12367,8 +14275,17 @@
       <c r="R212">
         <v>4.9400000000000004</v>
       </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S212">
+        <v>81.509999999999991</v>
+      </c>
+      <c r="T212">
+        <v>1.07</v>
+      </c>
+      <c r="U212">
+        <v>0.49666666666666698</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>20070330</v>
       </c>
@@ -12423,8 +14340,17 @@
       <c r="R213">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S213">
+        <v>83.149999999999991</v>
+      </c>
+      <c r="T213">
+        <v>-0.14333333333333301</v>
+      </c>
+      <c r="U213">
+        <v>0.456666666666667</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20070629</v>
       </c>
@@ -12479,8 +14405,17 @@
       <c r="R214">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S214">
+        <v>84.920744314722924</v>
+      </c>
+      <c r="T214">
+        <v>-0.77</v>
+      </c>
+      <c r="U214">
+        <v>-0.42333333333333301</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>20070928</v>
       </c>
@@ -12535,8 +14470,17 @@
       <c r="R215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S215">
+        <v>78.600744314722931</v>
+      </c>
+      <c r="T215">
+        <v>-2.4766666666666701</v>
+      </c>
+      <c r="U215">
+        <v>-1.64333333333333</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>20071231</v>
       </c>
@@ -12591,8 +14535,17 @@
       <c r="R216">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S216">
+        <v>66.180744314722929</v>
+      </c>
+      <c r="T216">
+        <v>-1.43</v>
+      </c>
+      <c r="U216">
+        <v>-0.73333333333333295</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>20080331</v>
       </c>
@@ -12647,8 +14600,17 @@
       <c r="R217">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S217">
+        <v>60.390744314722937</v>
+      </c>
+      <c r="T217">
+        <v>0.85666666666666702</v>
+      </c>
+      <c r="U217">
+        <v>-6.3333333333333394E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>20080630</v>
       </c>
@@ -12703,8 +14665,17 @@
       <c r="R218">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S218">
+        <v>51.37</v>
+      </c>
+      <c r="T218">
+        <v>-1.5833333333333299</v>
+      </c>
+      <c r="U218">
+        <v>0.95333333333333303</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>20080930</v>
       </c>
@@ -12759,8 +14730,17 @@
       <c r="R219">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S219">
+        <v>45.95</v>
+      </c>
+      <c r="T219">
+        <v>4.5766666666666698</v>
+      </c>
+      <c r="U219">
+        <v>1.63333333333333</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>20081231</v>
       </c>
@@ -12815,8 +14795,17 @@
       <c r="R220">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S220">
+        <v>14.879999999999995</v>
+      </c>
+      <c r="T220">
+        <v>-3.0533333333333301</v>
+      </c>
+      <c r="U220">
+        <v>-0.55666666666666698</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20090331</v>
       </c>
@@ -12871,8 +14860,17 @@
       <c r="R221">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S221">
+        <v>6.8599999999999994</v>
+      </c>
+      <c r="T221">
+        <v>-4.9633333333333303</v>
+      </c>
+      <c r="U221">
+        <v>7.3333333333333306E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>20090630</v>
       </c>
@@ -12927,8 +14925,17 @@
       <c r="R222">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S222">
+        <v>7.51</v>
+      </c>
+      <c r="T222">
+        <v>0.86</v>
+      </c>
+      <c r="U222">
+        <v>1.68333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>20090930</v>
       </c>
@@ -12983,8 +14990,17 @@
       <c r="R223">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S223">
+        <v>12.54</v>
+      </c>
+      <c r="T223">
+        <v>4.6533333333333298</v>
+      </c>
+      <c r="U223">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>20091231</v>
       </c>
@@ -13039,8 +15055,17 @@
       <c r="R224">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S224">
+        <v>50.97</v>
+      </c>
+      <c r="T224">
+        <v>-1.45</v>
+      </c>
+      <c r="U224">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>20100331</v>
       </c>
@@ -13095,8 +15120,17 @@
       <c r="R225">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S225">
+        <v>60.930000000000007</v>
+      </c>
+      <c r="T225">
+        <v>1.85666666666667</v>
+      </c>
+      <c r="U225">
+        <v>1.0066666666666699</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>20100630</v>
       </c>
@@ -13151,8 +15185,17 @@
       <c r="R226">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S226">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="T226">
+        <v>-1.35666666666667</v>
+      </c>
+      <c r="U226">
+        <v>1.0166666666666699</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>20100930</v>
       </c>
@@ -13207,8 +15250,17 @@
       <c r="R227">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S227">
+        <v>71.86</v>
+      </c>
+      <c r="T227">
+        <v>-1.78</v>
+      </c>
+      <c r="U227">
+        <v>0.36333333333333301</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>20101231</v>
       </c>
@@ -13263,8 +15315,17 @@
       <c r="R228">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S228">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="T228">
+        <v>0.10666666666666701</v>
+      </c>
+      <c r="U228">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>20110331</v>
       </c>
@@ -13319,8 +15380,17 @@
       <c r="R229">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S229">
+        <v>81.31</v>
+      </c>
+      <c r="T229">
+        <v>0.11333333333333299</v>
+      </c>
+      <c r="U229">
+        <v>0.55333333333333301</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>20110630</v>
       </c>
@@ -13375,8 +15445,17 @@
       <c r="R230">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S230">
+        <v>83.86999999999999</v>
+      </c>
+      <c r="T230">
+        <v>-1.64</v>
+      </c>
+      <c r="U230">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>20110930</v>
       </c>
@@ -13431,8 +15510,17 @@
       <c r="R231">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S231">
+        <v>86.97999999999999</v>
+      </c>
+      <c r="T231">
+        <v>-1.7</v>
+      </c>
+      <c r="U231">
+        <v>-2.64333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>20111230</v>
       </c>
@@ -13487,8 +15575,17 @@
       <c r="R232">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S232">
+        <v>86.95</v>
+      </c>
+      <c r="T232">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="U232">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>20120330</v>
       </c>
@@ -13543,8 +15640,17 @@
       <c r="R233">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S233">
+        <v>88.539999999999992</v>
+      </c>
+      <c r="T233">
+        <v>-4.33333333333333E-2</v>
+      </c>
+      <c r="U233">
+        <v>-7.3333333333333403E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>20120629</v>
       </c>
@@ -13599,8 +15705,17 @@
       <c r="R234">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S234">
+        <v>87.92</v>
+      </c>
+      <c r="T234">
+        <v>-0.21</v>
+      </c>
+      <c r="U234">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20120928</v>
       </c>
@@ -13655,8 +15770,17 @@
       <c r="R235">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S235">
+        <v>86.5</v>
+      </c>
+      <c r="T235">
+        <v>0.85666666666666702</v>
+      </c>
+      <c r="U235">
+        <v>-0.57333333333333303</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>20121231</v>
       </c>
@@ -13711,8 +15835,17 @@
       <c r="R236">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S236">
+        <v>86.510000000000019</v>
+      </c>
+      <c r="T236">
+        <v>2.1333333333333302</v>
+      </c>
+      <c r="U236">
+        <v>0.30666666666666698</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>20130328</v>
       </c>
@@ -13767,8 +15900,17 @@
       <c r="R237">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S237">
+        <v>87.699999999999989</v>
+      </c>
+      <c r="T237">
+        <v>0.22666666666666699</v>
+      </c>
+      <c r="U237">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>20130628</v>
       </c>
@@ -13823,8 +15965,17 @@
       <c r="R238">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S238">
+        <v>90.95</v>
+      </c>
+      <c r="T238">
+        <v>1.0166666666666699</v>
+      </c>
+      <c r="U238">
+        <v>0.13666666666666699</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>20130930</v>
       </c>
@@ -13879,8 +16030,17 @@
       <c r="R239">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S239">
+        <v>94.36999999999999</v>
+      </c>
+      <c r="T239">
+        <v>-1.13666666666667</v>
+      </c>
+      <c r="U239">
+        <v>1.6966666666666701</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>20131231</v>
       </c>
@@ -13935,8 +16095,17 @@
       <c r="R240">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S240">
+        <v>100.2</v>
+      </c>
+      <c r="T240">
+        <v>0.35666666666666702</v>
+      </c>
+      <c r="U240">
+        <v>-0.26333333333333298</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>20140331</v>
       </c>
@@ -13991,8 +16160,17 @@
       <c r="R241">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S241">
+        <v>100.85000000000001</v>
+      </c>
+      <c r="T241">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="U241">
+        <v>-0.233333333333333</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>20140630</v>
       </c>
@@ -14047,8 +16225,17 @@
       <c r="R242">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S242">
+        <v>103.12</v>
+      </c>
+      <c r="T242">
+        <v>4.33333333333333E-2</v>
+      </c>
+      <c r="U242">
+        <v>-1.0066666666666699</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>20140930</v>
       </c>
@@ -14103,8 +16290,17 @@
       <c r="R243">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S243">
+        <v>105.96000000000001</v>
+      </c>
+      <c r="T243">
+        <v>-0.60333333333333306</v>
+      </c>
+      <c r="U243">
+        <v>-2.5733333333333301</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>20141231</v>
       </c>
@@ -14159,8 +16355,17 @@
       <c r="R244">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S244">
+        <v>102.31</v>
+      </c>
+      <c r="T244">
+        <v>-0.88</v>
+      </c>
+      <c r="U244">
+        <v>1.55666666666667</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>20150331</v>
       </c>
@@ -14215,8 +16420,17 @@
       <c r="R245">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S245">
+        <v>99.25</v>
+      </c>
+      <c r="T245">
+        <v>-1.9166666666666701</v>
+      </c>
+      <c r="U245">
+        <v>0.98666666666666702</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>20150630</v>
       </c>
@@ -14271,8 +16485,17 @@
       <c r="R246">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S246">
+        <v>94.91</v>
+      </c>
+      <c r="T246">
+        <v>-0.103333333333333</v>
+      </c>
+      <c r="U246">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>20150930</v>
       </c>
@@ -14327,8 +16550,17 @@
       <c r="R247">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S247">
+        <v>90.66</v>
+      </c>
+      <c r="T247">
+        <v>-0.31</v>
+      </c>
+      <c r="U247">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>20151231</v>
       </c>
@@ -14383,8 +16615,17 @@
       <c r="R248">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S248">
+        <v>86.53</v>
+      </c>
+      <c r="T248">
+        <v>-1.05666666666667</v>
+      </c>
+      <c r="U248">
+        <v>-0.38666666666666699</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>20160331</v>
       </c>
@@ -14439,8 +16680,17 @@
       <c r="R249">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S249">
+        <v>86.44</v>
+      </c>
+      <c r="T249">
+        <v>0.913333333333333</v>
+      </c>
+      <c r="U249">
+        <v>-0.56333333333333302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>20160630</v>
       </c>
@@ -14495,8 +16745,17 @@
       <c r="R250">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S250">
+        <v>86.92</v>
+      </c>
+      <c r="T250">
+        <v>-6.6666666666667504E-3</v>
+      </c>
+      <c r="U250">
+        <v>0.35666666666666702</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>20160930</v>
       </c>
@@ -14551,8 +16810,17 @@
       <c r="R251">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S251">
+        <v>89.09</v>
+      </c>
+      <c r="T251">
+        <v>0.24666666666666701</v>
+      </c>
+      <c r="U251">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>20161230</v>
       </c>
@@ -14607,8 +16875,17 @@
       <c r="R252">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S252">
+        <v>94.55</v>
+      </c>
+      <c r="T252">
+        <v>5.3433333333333302</v>
+      </c>
+      <c r="U252">
+        <v>0.39333333333333298</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>20170331</v>
       </c>
@@ -14663,8 +16940,17 @@
       <c r="R253">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S253">
+        <v>100.28999999999999</v>
+      </c>
+      <c r="T253">
+        <v>-2.58</v>
+      </c>
+      <c r="U253">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>20170630</v>
       </c>
@@ -14719,8 +17005,17 @@
       <c r="R254">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S254">
+        <v>104.02</v>
+      </c>
+      <c r="T254">
+        <v>-1.43333333333333</v>
+      </c>
+      <c r="U254">
+        <v>0.11333333333333299</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>20170929</v>
       </c>
@@ -14775,8 +17070,17 @@
       <c r="R255">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S255">
+        <v>107.08000000000001</v>
+      </c>
+      <c r="T255">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="U255">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>20171229</v>
       </c>
@@ -14831,8 +17135,17 @@
       <c r="R256">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S256">
+        <v>109.88</v>
+      </c>
+      <c r="T256">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="U256">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>20180329</v>
       </c>
@@ -14887,8 +17200,17 @@
       <c r="R257">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S257">
+        <v>115.44</v>
+      </c>
+      <c r="T257">
+        <v>-0.89333333333333298</v>
+      </c>
+      <c r="U257">
+        <v>0.39333333333333298</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>20180629</v>
       </c>
@@ -14943,8 +17265,17 @@
       <c r="R258">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S258">
+        <v>122.48</v>
+      </c>
+      <c r="T258">
+        <v>-1.6666666666666701</v>
+      </c>
+      <c r="U258">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>20180928</v>
       </c>
@@ -14999,8 +17330,17 @@
       <c r="R259">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S259">
+        <v>130.38999999999999</v>
+      </c>
+      <c r="T259">
+        <v>-1.65</v>
+      </c>
+      <c r="U259">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>20181231</v>
       </c>
@@ -15054,6 +17394,15 @@
       </c>
       <c r="R260">
         <v>2.4</v>
+      </c>
+      <c r="S260">
+        <v>132.38999999999999</v>
+      </c>
+      <c r="T260">
+        <v>0.74</v>
+      </c>
+      <c r="U260">
+        <v>-2.7266666666666701</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Samling.xlsx
+++ b/Input/Samling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKF\Documents\Matematik-Okonomi\5. Ar\2. Semester\Master-Thesis\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB02AC0-978C-45F9-AE86-BD39EFFCB291}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6854FE2D-9534-45BB-A273-FBCA80D02CB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{3741E5F2-D768-457C-87FC-7839950FE67D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3741E5F2-D768-457C-87FC-7839950FE67D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>caldt</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>smb</t>
+  </si>
+  <si>
+    <t>dp</t>
   </si>
 </sst>
 </file>
@@ -499,13 +502,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CF90C-587D-451D-99A9-A16F3095B1C4}">
-  <dimension ref="A1:U260"/>
+  <dimension ref="A1:V260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +572,11 @@
       <c r="U1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>19540630</v>
       </c>
@@ -634,8 +640,11 @@
       <c r="U2">
         <v>-0.89333333333333298</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <v>-3.0390896819545499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19540930</v>
       </c>
@@ -699,8 +708,11 @@
       <c r="U3">
         <v>0.396666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>-3.0941763987508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19541231</v>
       </c>
@@ -764,8 +776,11 @@
       <c r="U4">
         <v>3.6666666666666702E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>-3.1651422590826099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19550331</v>
       </c>
@@ -829,8 +844,11 @@
       <c r="U5">
         <v>0.37666666666666698</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>-3.1806169646830198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19550630</v>
       </c>
@@ -894,8 +912,11 @@
       <c r="U6">
         <v>-2.2433333333333301</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>-3.2530374347171298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19550930</v>
       </c>
@@ -959,8 +980,11 @@
       <c r="U7">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>-3.2497962652086398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19551230</v>
       </c>
@@ -1024,8 +1048,11 @@
       <c r="U8">
         <v>0.37333333333333302</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>-3.2543170275998698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19560329</v>
       </c>
@@ -1089,8 +1116,11 @@
       <c r="U9">
         <v>-1.0066666666666699</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>-3.2835791274609001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19560629</v>
       </c>
@@ -1154,8 +1184,11 @@
       <c r="U10">
         <v>3.6666666666666702E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>-3.2366739760526499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19560928</v>
       </c>
@@ -1219,8 +1252,11 @@
       <c r="U11">
         <v>0.59333333333333305</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>-3.1846354870162301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19561231</v>
       </c>
@@ -1284,8 +1320,11 @@
       <c r="U12">
         <v>-0.11333333333333299</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>-3.2265472434594602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19570329</v>
       </c>
@@ -1349,8 +1388,11 @@
       <c r="U13">
         <v>0.98333333333333295</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>-3.1748965411349701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19570627</v>
       </c>
@@ -1414,8 +1456,11 @@
       <c r="U14">
         <v>-0.706666666666667</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>-3.23475686700696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19570930</v>
       </c>
@@ -1479,8 +1524,11 @@
       <c r="U15">
         <v>-0.206666666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>-3.1139276280434198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19571231</v>
       </c>
@@ -1544,8 +1592,11 @@
       <c r="U16">
         <v>-1.0166666666666699</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>-3.0702698949820499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19580331</v>
       </c>
@@ -1609,8 +1660,11 @@
       <c r="U17">
         <v>1.8966666666666701</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>-3.1252160019455899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19580630</v>
       </c>
@@ -1674,8 +1728,11 @@
       <c r="U18">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>-3.1985331045784302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19580930</v>
       </c>
@@ -1739,8 +1796,11 @@
       <c r="U19">
         <v>0.60333333333333306</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>-3.2877848057596202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19581231</v>
       </c>
@@ -1804,8 +1864,11 @@
       <c r="U20">
         <v>0.37333333333333302</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>-3.3901392586076899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19590331</v>
       </c>
@@ -1869,8 +1932,11 @@
       <c r="U21">
         <v>1.9966666666666699</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>-3.4129602493035498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19590630</v>
       </c>
@@ -1934,8 +2000,11 @@
       <c r="U22">
         <v>-0.68333333333333302</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>-3.4598977927908501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19590930</v>
       </c>
@@ -1999,8 +2068,11 @@
       <c r="U23">
         <v>-0.396666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>-3.4327207745671502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19591231</v>
       </c>
@@ -2064,8 +2136,11 @@
       <c r="U24">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>-3.4636020960598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19600331</v>
       </c>
@@ -2129,8 +2204,11 @@
       <c r="U25">
         <v>0.69666666666666699</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>-3.3757195174465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19600630</v>
       </c>
@@ -2194,8 +2272,11 @@
       <c r="U26">
         <v>0.43333333333333302</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>-3.3922375051415301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19600930</v>
       </c>
@@ -2259,8 +2340,11 @@
       <c r="U27">
         <v>-0.24333333333333301</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>-3.32591477701247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19601230</v>
       </c>
@@ -2324,8 +2408,11 @@
       <c r="U28">
         <v>-1.72</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>-3.4094750254967998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19610330</v>
       </c>
@@ -2389,8 +2476,11 @@
       <c r="U29">
         <v>2.6366666666666698</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>-3.5206640444711099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19610630</v>
       </c>
@@ -2454,8 +2544,11 @@
       <c r="U30">
         <v>-0.14000000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>-3.5242895135991401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19610929</v>
       </c>
@@ -2519,8 +2612,11 @@
       <c r="U31">
         <v>-1.56</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>-3.5433128729094499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19611229</v>
       </c>
@@ -2584,8 +2680,11 @@
       <c r="U32">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>-3.59113055578388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19620330</v>
       </c>
@@ -2649,8 +2748,11 @@
       <c r="U33">
         <v>0.38333333333333303</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>-3.55803976678378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19620629</v>
       </c>
@@ -2714,8 +2816,11 @@
       <c r="U34">
         <v>-1.5266666666666699</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>-3.31369763624545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>19620928</v>
       </c>
@@ -2779,8 +2884,11 @@
       <c r="U35">
         <v>9.6666666666666595E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>-3.3386398895923701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19621231</v>
       </c>
@@ -2844,8 +2952,11 @@
       <c r="U36">
         <v>-1.72</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>-3.4158175735465299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19630329</v>
       </c>
@@ -2909,8 +3020,11 @@
       <c r="U37">
         <v>0.31333333333333302</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>-3.4597164513570999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19630628</v>
       </c>
@@ -2974,8 +3088,11 @@
       <c r="U38">
         <v>-0.146666666666667</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>-3.4670880490023102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19630930</v>
       </c>
@@ -3039,8 +3156,11 @@
       <c r="U39">
         <v>-0.60333333333333306</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>-3.4808741559110601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19631231</v>
       </c>
@@ -3104,8 +3224,11 @@
       <c r="U40">
         <v>-1.21333333333333</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>-3.4909029247675298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19640331</v>
       </c>
@@ -3169,8 +3292,11 @@
       <c r="U41">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>-3.5246533023073101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19640630</v>
       </c>
@@ -3234,8 +3360,11 @@
       <c r="U42">
         <v>-0.84333333333333305</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>-3.5274414556004201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>19640930</v>
       </c>
@@ -3299,8 +3428,11 @@
       <c r="U43">
         <v>-4.6666666666666697E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>-3.5306132738710199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19641231</v>
       </c>
@@ -3364,8 +3496,11 @@
       <c r="U44">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>-3.5245072024563702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19650331</v>
       </c>
@@ -3429,8 +3564,11 @@
       <c r="U45">
         <v>2.6566666666666698</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>-3.53651262550625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19650630</v>
       </c>
@@ -3494,8 +3632,11 @@
       <c r="U46">
         <v>-1.03666666666667</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>-3.4923801452006402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19650930</v>
       </c>
@@ -3559,8 +3700,11 @@
       <c r="U47">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>-3.5441480182903602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19651231</v>
       </c>
@@ -3624,8 +3768,11 @@
       <c r="U48">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>-3.55163845775499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19660331</v>
       </c>
@@ -3689,8 +3836,11 @@
       <c r="U49">
         <v>3.12333333333333</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>-3.50755754657242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19660630</v>
       </c>
@@ -3754,8 +3904,11 @@
       <c r="U50">
         <v>-7.6666666666666702E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>-3.4366793878033102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19660930</v>
       </c>
@@ -3819,8 +3972,11 @@
       <c r="U51">
         <v>-1.58</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <v>-3.3191070539070999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>19661230</v>
       </c>
@@ -3884,8 +4040,11 @@
       <c r="U52">
         <v>-0.18666666666666701</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52">
+        <v>-3.3759838846999202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19670331</v>
       </c>
@@ -3949,8 +4108,11 @@
       <c r="U53">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <v>-3.47951349648593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>19670630</v>
       </c>
@@ -4014,8 +4176,11 @@
       <c r="U54">
         <v>2.8533333333333299</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <v>-3.48915319962141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19670929</v>
       </c>
@@ -4079,8 +4244,11 @@
       <c r="U55">
         <v>2.2166666666666699</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>-3.5372530882627098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>19671229</v>
       </c>
@@ -4144,8 +4312,11 @@
       <c r="U56">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <v>-3.5341994573981701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>19680329</v>
       </c>
@@ -4209,8 +4380,11 @@
       <c r="U57">
         <v>-0.10666666666666701</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <v>-3.4602089332914199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>19680628</v>
       </c>
@@ -4274,8 +4448,11 @@
       <c r="U58">
         <v>3.9966666666666701</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58">
+        <v>-3.5623038250331001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>19680930</v>
       </c>
@@ -4339,8 +4516,11 @@
       <c r="U59">
         <v>1.2666666666666699</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <v>-3.5823841718359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>19681231</v>
       </c>
@@ -4404,8 +4584,11 @@
       <c r="U60">
         <v>1.7766666666666699</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60">
+        <v>-3.6056420631134301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19690328</v>
       </c>
@@ -4469,8 +4652,11 @@
       <c r="U61">
         <v>-1.64</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61">
+        <v>-3.5557352955977701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>19690630</v>
       </c>
@@ -4534,8 +4720,11 @@
       <c r="U62">
         <v>-2.1800000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <v>-3.4979702801728201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>19690930</v>
       </c>
@@ -4599,8 +4788,11 @@
       <c r="U63">
         <v>-0.35666666666666702</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <v>-3.4507459377890801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19691231</v>
       </c>
@@ -4664,8 +4856,11 @@
       <c r="U64">
         <v>-0.79666666666666697</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <v>-3.44724592705272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>19700331</v>
       </c>
@@ -4729,8 +4924,11 @@
       <c r="U65">
         <v>-0.60666666666666702</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <v>-3.4117377008173801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>19700630</v>
       </c>
@@ -4794,8 +4992,11 @@
       <c r="U66">
         <v>-4.2633333333333301</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66">
+        <v>-3.19514337892375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>19700930</v>
       </c>
@@ -4859,8 +5060,11 @@
       <c r="U67">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67">
+        <v>-3.34370940567648</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>19701231</v>
       </c>
@@ -4924,8 +5128,11 @@
       <c r="U68">
         <v>-1.7933333333333299</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <v>-3.41732569204185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19710331</v>
       </c>
@@ -4989,8 +5196,11 @@
       <c r="U69">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <v>-3.5167955555084101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>19710630</v>
       </c>
@@ -5054,8 +5264,11 @@
       <c r="U70">
         <v>-1.0033333333333301</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>-3.4971606495722001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>19710930</v>
       </c>
@@ -5119,8 +5332,11 @@
       <c r="U71">
         <v>-0.41666666666666702</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71">
+        <v>-3.4979192448866501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19711231</v>
       </c>
@@ -5184,8 +5400,11 @@
       <c r="U72">
         <v>-0.44333333333333302</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72">
+        <v>-3.5368770521385402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19720330</v>
       </c>
@@ -5249,8 +5468,11 @@
       <c r="U73">
         <v>2.4066666666666698</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73">
+        <v>-3.6055020210537401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>19720630</v>
       </c>
@@ -5314,8 +5536,11 @@
       <c r="U74">
         <v>-0.81666666666666698</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74">
+        <v>-3.59930454349016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19720929</v>
       </c>
@@ -5379,8 +5604,11 @@
       <c r="U75">
         <v>-3.2166666666666699</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75">
+        <v>-3.6168907398755898</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>19721229</v>
       </c>
@@ -5444,8 +5672,11 @@
       <c r="U76">
         <v>-1.90333333333333</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V76">
+        <v>-3.6740653562623402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19730330</v>
       </c>
@@ -5509,8 +5740,11 @@
       <c r="U77">
         <v>-3.43</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <v>-3.5962818873404299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>19730629</v>
       </c>
@@ -5574,8 +5808,11 @@
       <c r="U78">
         <v>-4.3533333333333299</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78">
+        <v>-3.5010185734277401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>19730928</v>
       </c>
@@ -5639,8 +5876,11 @@
       <c r="U79">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79">
+        <v>-3.55609890087077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>19731231</v>
       </c>
@@ -5704,8 +5944,11 @@
       <c r="U80">
         <v>-4.4066666666666698</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <v>-3.4132907613955901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>19740329</v>
       </c>
@@ -5769,8 +6012,11 @@
       <c r="U81">
         <v>4.10666666666667</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V81">
+        <v>-3.36709177020002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>19740628</v>
       </c>
@@ -5834,8 +6080,11 @@
       <c r="U82">
         <v>-1.30666666666667</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82">
+        <v>-3.2232492576064602</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>19740930</v>
       </c>
@@ -5899,8 +6148,11 @@
       <c r="U83">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V83">
+        <v>-2.9367817582376898</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>19741231</v>
       </c>
@@ -5964,8 +6216,11 @@
       <c r="U84">
         <v>-3.1733333333333298</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V84">
+        <v>-3.0025364494378102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>19750331</v>
       </c>
@@ -6029,8 +6284,11 @@
       <c r="U85">
         <v>4.9733333333333301</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V85">
+        <v>-3.1799791609044701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>19750630</v>
       </c>
@@ -6094,8 +6352,11 @@
       <c r="U86">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V86">
+        <v>-3.2945027909859301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>19750930</v>
       </c>
@@ -6159,8 +6420,11 @@
       <c r="U87">
         <v>-0.21333333333333299</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V87">
+        <v>-3.1389091165445602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>19751231</v>
       </c>
@@ -6224,8 +6488,11 @@
       <c r="U88">
         <v>-1.99</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V88">
+        <v>-3.2002404999212799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>19760331</v>
       </c>
@@ -6289,8 +6556,11 @@
       <c r="U89">
         <v>3.5533333333333301</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V89">
+        <v>-3.3365101775020398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>19760630</v>
       </c>
@@ -6354,8 +6624,11 @@
       <c r="U90">
         <v>-0.87333333333333296</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V90">
+        <v>-3.3308420129974299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>19760930</v>
       </c>
@@ -6419,8 +6692,11 @@
       <c r="U91">
         <v>-0.56999999999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V91">
+        <v>-3.2982475383605001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19761231</v>
       </c>
@@ -6484,8 +6760,11 @@
       <c r="U92">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V92">
+        <v>-3.26886731113856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19770331</v>
       </c>
@@ -6549,8 +6828,11 @@
       <c r="U93">
         <v>2.2833333333333301</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V93">
+        <v>-3.1660802160441901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19770630</v>
       </c>
@@ -6614,8 +6896,11 @@
       <c r="U94">
         <v>1.0633333333333299</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V94">
+        <v>-3.1583383709067201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19770930</v>
       </c>
@@ -6679,8 +6964,11 @@
       <c r="U95">
         <v>1.6966666666666701</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V95">
+        <v>-3.0984440410095901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19771230</v>
       </c>
@@ -6744,8 +7032,11 @@
       <c r="U96">
         <v>2.1133333333333302</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V96">
+        <v>-3.0729463842245202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19780331</v>
       </c>
@@ -6809,8 +7100,11 @@
       <c r="U97">
         <v>3.0966666666666698</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V97">
+        <v>-2.9920087378718798</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19780630</v>
       </c>
@@ -6874,8 +7168,11 @@
       <c r="U98">
         <v>2.2166666666666699</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V98">
+        <v>-3.05298818664799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>19780929</v>
       </c>
@@ -6939,8 +7236,11 @@
       <c r="U99">
         <v>1.64333333333333</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V99">
+        <v>-3.1060130355186599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>19781229</v>
       </c>
@@ -7004,8 +7304,11 @@
       <c r="U100">
         <v>-1.87666666666667</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V100">
+        <v>-2.99716224279948</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>19790330</v>
       </c>
@@ -7069,8 +7372,11 @@
       <c r="U101">
         <v>2.43333333333333</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V101">
+        <v>-3.0342177586669301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>19790629</v>
       </c>
@@ -7134,8 +7440,11 @@
       <c r="U102">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V102">
+        <v>-3.01987675228176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>19790928</v>
       </c>
@@ -7199,8 +7508,11 @@
       <c r="U103">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V103">
+        <v>-3.0551281002815101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>19791231</v>
       </c>
@@ -7264,8 +7576,11 @@
       <c r="U104">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V104">
+        <v>-3.02080739047573</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>19800331</v>
       </c>
@@ -7329,8 +7644,11 @@
       <c r="U105">
         <v>-2.27</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V105">
+        <v>-2.9438602561116398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>19800630</v>
       </c>
@@ -7394,8 +7712,11 @@
       <c r="U106">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V106">
+        <v>-3.0538275883789301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>19800930</v>
       </c>
@@ -7459,8 +7780,11 @@
       <c r="U107">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V107">
+        <v>-3.1284111701013999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>19801231</v>
       </c>
@@ -7524,8 +7848,11 @@
       <c r="U108">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V108">
+        <v>-3.19535523232291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>19810331</v>
       </c>
@@ -7589,8 +7916,11 @@
       <c r="U109">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V109">
+        <v>-3.1525708088889299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>19810630</v>
       </c>
@@ -7654,8 +7984,11 @@
       <c r="U110">
         <v>1.85666666666667</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V110">
+        <v>-3.1234238319180698</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>19810930</v>
       </c>
@@ -7719,8 +8052,11 @@
       <c r="U111">
         <v>-2.2633333333333301</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V111">
+        <v>-2.9855166658393002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19811231</v>
       </c>
@@ -7784,8 +8120,11 @@
       <c r="U112">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V112">
+        <v>-3.0338729470707699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>19820331</v>
       </c>
@@ -7849,8 +8188,11 @@
       <c r="U113">
         <v>-0.33</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V113">
+        <v>-2.9273236639241098</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19820630</v>
       </c>
@@ -7914,8 +8256,11 @@
       <c r="U114">
         <v>0.52666666666666695</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V114">
+        <v>-2.8937979221058998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>19820930</v>
       </c>
@@ -7979,8 +8324,11 @@
       <c r="U115">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V115">
+        <v>-2.9536329673163899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>19821231</v>
       </c>
@@ -8044,8 +8392,11 @@
       <c r="U116">
         <v>2.3133333333333299</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V116">
+        <v>-3.1054798413030902</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>19830331</v>
       </c>
@@ -8109,8 +8460,11 @@
       <c r="U117">
         <v>2.56666666666667</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V117">
+        <v>-3.1762895909114102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>19830630</v>
       </c>
@@ -8174,8 +8528,11 @@
       <c r="U118">
         <v>2.5333333333333301</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V118">
+        <v>-3.2743761560735201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>19830930</v>
       </c>
@@ -8239,8 +8596,11 @@
       <c r="U119">
         <v>-0.76</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V119">
+        <v>-3.2526915135221701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>19831230</v>
       </c>
@@ -8304,8 +8664,11 @@
       <c r="U120">
         <v>-0.61666666666666703</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V120">
+        <v>-3.2274348297918398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>19840330</v>
       </c>
@@ -8369,8 +8732,11 @@
       <c r="U121">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V121">
+        <v>-3.1853104951020699</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>19840629</v>
       </c>
@@ -8434,8 +8800,11 @@
       <c r="U122">
         <v>-0.49666666666666698</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V122">
+        <v>-3.1319760310162201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>19840928</v>
       </c>
@@ -8499,8 +8868,11 @@
       <c r="U123">
         <v>-0.75333333333333297</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V123">
+        <v>-3.1981103216109998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>19841231</v>
       </c>
@@ -8564,8 +8936,11 @@
       <c r="U124">
         <v>-0.80666666666666698</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V124">
+        <v>-3.1781703660976901</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>19850329</v>
       </c>
@@ -8629,8 +9004,11 @@
       <c r="U125">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V125">
+        <v>-3.2467223247397698</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>19850628</v>
       </c>
@@ -8694,8 +9072,11 @@
       <c r="U126">
         <v>-0.55000000000000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V126">
+        <v>-3.29189447781981</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>19850930</v>
       </c>
@@ -8759,8 +9140,11 @@
       <c r="U127">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V127">
+        <v>-3.2269703770298599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>19851231</v>
       </c>
@@ -8824,8 +9208,11 @@
       <c r="U128">
         <v>-0.61</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V128">
+        <v>-3.3485903869912601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>19860331</v>
       </c>
@@ -8889,8 +9276,11 @@
       <c r="U129">
         <v>1.6666666666666601E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V129">
+        <v>-3.4481844739807399</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>19860630</v>
       </c>
@@ -8954,8 +9344,11 @@
       <c r="U130">
         <v>0.20333333333333301</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V130">
+        <v>-3.47834010318565</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>19860930</v>
       </c>
@@ -9019,8 +9412,11 @@
       <c r="U131">
         <v>-1.7566666666666699</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V131">
+        <v>-3.3868116898095799</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>19861231</v>
       </c>
@@ -9084,8 +9480,11 @@
       <c r="U132">
         <v>-1.44</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V132">
+        <v>-3.3894871513996798</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>19870331</v>
       </c>
@@ -9149,8 +9548,11 @@
       <c r="U133">
         <v>0.68333333333333302</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V133">
+        <v>-3.56918694589619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>19870630</v>
       </c>
@@ -9214,8 +9616,11 @@
       <c r="U134">
         <v>-1.4666666666666699</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V134">
+        <v>-3.5644517929491202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>19870930</v>
       </c>
@@ -9279,8 +9684,11 @@
       <c r="U135">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V135">
+        <v>-3.5716278591830601</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>19871231</v>
       </c>
@@ -9344,8 +9752,11 @@
       <c r="U136">
         <v>-1.8433333333333299</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V136">
+        <v>-3.2806292644566302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>19880331</v>
       </c>
@@ -9409,8 +9820,11 @@
       <c r="U137">
         <v>2.9166666666666701</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V137">
+        <v>-3.2959217837424801</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>19880630</v>
       </c>
@@ -9474,8 +9888,11 @@
       <c r="U138">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V138">
+        <v>-3.3400899181776</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>19880930</v>
       </c>
@@ -9539,8 +9956,11 @@
       <c r="U139">
         <v>-0.473333333333333</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V139">
+        <v>-3.2916409572711398</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>19881230</v>
       </c>
@@ -9604,8 +10024,11 @@
       <c r="U140">
         <v>-0.89666666666666694</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V140">
+        <v>-3.2383961334485298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>19890331</v>
       </c>
@@ -9669,8 +10092,11 @@
       <c r="U141">
         <v>0.45333333333333298</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V141">
+        <v>-3.2884869900964602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19890630</v>
       </c>
@@ -9734,8 +10160,11 @@
       <c r="U142">
         <v>-0.54666666666666697</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V142">
+        <v>-3.3200066948945599</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>19890929</v>
       </c>
@@ -9799,8 +10228,11 @@
       <c r="U143">
         <v>-1.08</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V143">
+        <v>-3.3876034160873001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>19891229</v>
       </c>
@@ -9864,8 +10296,11 @@
       <c r="U144">
         <v>-2.31666666666667</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V144">
+        <v>-3.4108791741003199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>19900330</v>
       </c>
@@ -9929,8 +10364,11 @@
       <c r="U145">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V145">
+        <v>-3.3649834537165502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>19900629</v>
       </c>
@@ -9994,8 +10432,11 @@
       <c r="U146">
         <v>-0.54666666666666697</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V146">
+        <v>-3.3914574936427999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>19900928</v>
       </c>
@@ -10059,8 +10500,11 @@
       <c r="U147">
         <v>-3.4866666666666699</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V147">
+        <v>-3.2508346622034701</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>19901231</v>
       </c>
@@ -10124,8 +10568,11 @@
       <c r="U148">
         <v>-1.46333333333333</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V148">
+        <v>-3.30256261186282</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19910328</v>
       </c>
@@ -10189,8 +10636,11 @@
       <c r="U149">
         <v>3.87666666666667</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V149">
+        <v>-3.4365164981237299</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>19910628</v>
       </c>
@@ -10254,8 +10704,11 @@
       <c r="U150">
         <v>7.6666666666666702E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V150">
+        <v>-3.4478146489361801</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>19910930</v>
       </c>
@@ -10319,8 +10772,11 @@
       <c r="U151">
         <v>0.76333333333333298</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V151">
+        <v>-3.48656061605671</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>19911231</v>
       </c>
@@ -10384,8 +10840,11 @@
       <c r="U152">
         <v>-0.60666666666666702</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V152">
+        <v>-3.56742069990002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19920331</v>
       </c>
@@ -10449,8 +10908,11 @@
       <c r="U153">
         <v>2.7733333333333299</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V153">
+        <v>-3.5621676719346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>19920630</v>
       </c>
@@ -10514,8 +10976,11 @@
       <c r="U154">
         <v>-2.94</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V154">
+        <v>-3.5576372343359099</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>19920930</v>
       </c>
@@ -10579,8 +11044,11 @@
       <c r="U155">
         <v>1.8503717077085901E-17</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V155">
+        <v>-3.57917122131134</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>19921231</v>
       </c>
@@ -10644,8 +11112,11 @@
       <c r="U156">
         <v>2.4633333333333298</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V156">
+        <v>-3.6497714821478699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>19930331</v>
       </c>
@@ -10709,8 +11180,11 @@
       <c r="U157">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V157">
+        <v>-3.6708415610035598</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>19930630</v>
       </c>
@@ -10774,8 +11248,11 @@
       <c r="U158">
         <v>0.31666666666666698</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V158">
+        <v>-3.6627118106770902</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>19930930</v>
       </c>
@@ -10839,8 +11316,11 @@
       <c r="U159">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V159">
+        <v>-3.6888753068207998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>19931231</v>
       </c>
@@ -10904,8 +11384,11 @@
       <c r="U160">
         <v>0.41666666666666702</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V160">
+        <v>-3.69980718059711</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>19940331</v>
       </c>
@@ -10969,8 +11452,11 @@
       <c r="U161">
         <v>0.63333333333333297</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V161">
+        <v>-3.6633073663429898</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>19940630</v>
       </c>
@@ -11034,8 +11520,11 @@
       <c r="U162">
         <v>-1.12666666666667</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V162">
+        <v>-3.64651120435368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>19940930</v>
       </c>
@@ -11099,8 +11588,11 @@
       <c r="U163">
         <v>0.81666666666666698</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V163">
+        <v>-3.6933395909328799</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>19941230</v>
       </c>
@@ -11164,8 +11656,11 @@
       <c r="U164">
         <v>-0.68333333333333302</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V164">
+        <v>-3.6610887096222999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>19950331</v>
       </c>
@@ -11229,8 +11724,11 @@
       <c r="U165">
         <v>-1.33666666666667</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V165">
+        <v>-3.71719184720149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>19950630</v>
       </c>
@@ -11294,8 +11792,11 @@
       <c r="U166">
         <v>3.00000000000001E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V166">
+        <v>-3.7781541600353701</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>19950929</v>
       </c>
@@ -11359,8 +11860,11 @@
       <c r="U167">
         <v>0.52666666666666695</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V167">
+        <v>-3.8123078421024799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>19951229</v>
       </c>
@@ -11424,8 +11928,11 @@
       <c r="U168">
         <v>-1.44333333333333</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V168">
+        <v>-3.8337359718584301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>19960329</v>
       </c>
@@ -11489,8 +11996,11 @@
       <c r="U169">
         <v>0.193333333333333</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V169">
+        <v>-3.87107027343446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>19960628</v>
       </c>
@@ -11554,8 +12064,11 @@
       <c r="U170">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V170">
+        <v>-3.90452048962293</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>19960930</v>
       </c>
@@ -11619,8 +12132,11 @@
       <c r="U171">
         <v>-0.80666666666666698</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V171">
+        <v>-3.9242047591038798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>19961231</v>
       </c>
@@ -11684,8 +12200,11 @@
       <c r="U172">
         <v>-1.71333333333333</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V172">
+        <v>-3.9712149388528202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>19970331</v>
       </c>
@@ -11749,8 +12268,11 @@
       <c r="U173">
         <v>-1.71</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V173">
+        <v>-3.97061160775278</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>19970630</v>
       </c>
@@ -11814,8 +12336,11 @@
       <c r="U174">
         <v>0.18666666666666601</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V174">
+        <v>-4.1017708049273001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>19970930</v>
       </c>
@@ -11879,8 +12404,11 @@
       <c r="U175">
         <v>2.37333333333333</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V175">
+        <v>-4.1819877846781903</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>19971231</v>
       </c>
@@ -11944,8 +12472,11 @@
       <c r="U176">
         <v>-2.66</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V176">
+        <v>-4.1753232187288001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>19980331</v>
       </c>
@@ -12009,8 +12540,11 @@
       <c r="U177">
         <v>-0.69333333333333302</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V177">
+        <v>-4.2706164756417602</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>19980630</v>
       </c>
@@ -12074,8 +12608,11 @@
       <c r="U178">
         <v>-2.2333333333333298</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V178">
+        <v>-4.2727268859732899</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>19980930</v>
       </c>
@@ -12139,8 +12676,11 @@
       <c r="U179">
         <v>-3.5233333333333299</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V179">
+        <v>-4.1322560495608203</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>19981231</v>
       </c>
@@ -12204,8 +12744,11 @@
       <c r="U180">
         <v>-0.85666666666666702</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V180">
+        <v>-4.3107046066646797</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>19990331</v>
       </c>
@@ -12269,8 +12812,11 @@
       <c r="U181">
         <v>-3.0733333333333301</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V181">
+        <v>-4.3375798090493598</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>19990630</v>
       </c>
@@ -12334,8 +12880,11 @@
       <c r="U182">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V182">
+        <v>-4.3662256368056998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19990930</v>
       </c>
@@ -12399,8 +12948,11 @@
       <c r="U183">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V183">
+        <v>-4.2887536519985598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>19991231</v>
       </c>
@@ -12464,8 +13016,11 @@
       <c r="U184">
         <v>2.5133333333333301</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V184">
+        <v>-4.4555108439786499</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>20000331</v>
       </c>
@@ -12529,8 +13084,11 @@
       <c r="U185">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V185">
+        <v>-4.4888569504408196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>20000630</v>
       </c>
@@ -12594,8 +13152,11 @@
       <c r="U186">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V186">
+        <v>-4.47154123597499</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>20000929</v>
       </c>
@@ -12659,8 +13220,11 @@
       <c r="U187">
         <v>-1.7433333333333301</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V187">
+        <v>-4.4890954233204496</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20001229</v>
       </c>
@@ -12724,8 +13288,11 @@
       <c r="U188">
         <v>-1.87</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V188">
+        <v>-4.3997603231717699</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>20010330</v>
       </c>
@@ -12789,8 +13356,11 @@
       <c r="U189">
         <v>2.0566666666666702</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V189">
+        <v>-4.3044407311139903</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20010629</v>
       </c>
@@ -12854,8 +13424,11 @@
       <c r="U190">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V190">
+        <v>-4.3981722283493498</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>20010928</v>
       </c>
@@ -12919,8 +13492,11 @@
       <c r="U191">
         <v>-2.6566666666666698</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V191">
+        <v>-4.2240966862517704</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>20011231</v>
       </c>
@@ -12984,8 +13560,11 @@
       <c r="U192">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V192">
+        <v>-4.3305742687021302</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>20020328</v>
       </c>
@@ -13049,8 +13628,11 @@
       <c r="U193">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V193">
+        <v>-4.3087238063185902</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>20020628</v>
       </c>
@@ -13114,8 +13696,11 @@
       <c r="U194">
         <v>2.3333333333333299</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V194">
+        <v>-4.1703270875885003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>20020930</v>
       </c>
@@ -13179,8 +13764,11 @@
       <c r="U195">
         <v>-1.7233333333333301</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V195">
+        <v>-3.9882701083508301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>20021231</v>
       </c>
@@ -13244,8 +13832,11 @@
       <c r="U196">
         <v>-1.6666666666666701E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V196">
+        <v>-4.0585950373044604</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>20030331</v>
       </c>
@@ -13309,8 +13900,11 @@
       <c r="U197">
         <v>0.64333333333333298</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V197">
+        <v>-4.0184571784624596</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>20030630</v>
       </c>
@@ -13374,8 +13968,11 @@
       <c r="U198">
         <v>2.3066666666666702</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V198">
+        <v>-4.1179823050152704</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>20030930</v>
       </c>
@@ -13439,8 +14036,11 @@
       <c r="U199">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V199">
+        <v>-4.1078443426201297</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>20031231</v>
       </c>
@@ -13504,8 +14104,11 @@
       <c r="U200">
         <v>0.56666666666666698</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V200">
+        <v>-4.1593484130079101</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>20040331</v>
       </c>
@@ -13569,8 +14172,11 @@
       <c r="U201">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V201">
+        <v>-4.1474805386428102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>20040630</v>
       </c>
@@ -13634,8 +14240,11 @@
       <c r="U202">
         <v>-3.3333333333334198E-3</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V202">
+        <v>-4.1076016974923704</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>20040930</v>
       </c>
@@ -13699,8 +14308,11 @@
       <c r="U203">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V203">
+        <v>-4.0616602346186204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>20041231</v>
       </c>
@@ -13764,8 +14376,11 @@
       <c r="U204">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V204">
+        <v>-4.0022185613177497</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20050331</v>
       </c>
@@ -13829,8 +14444,11 @@
       <c r="U205">
         <v>-1.12666666666667</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V205">
+        <v>-3.93780510455744</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>20050630</v>
       </c>
@@ -13894,8 +14512,11 @@
       <c r="U206">
         <v>0.50666666666666704</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V206">
+        <v>-3.9312304495050601</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>20050930</v>
       </c>
@@ -13959,8 +14580,11 @@
       <c r="U207">
         <v>0.47666666666666702</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V207">
+        <v>-3.9507266486213202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>20051230</v>
       </c>
@@ -14024,8 +14648,11 @@
       <c r="U208">
         <v>-0.25666666666666699</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V208">
+        <v>-4.0463630309084104</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20060331</v>
       </c>
@@ -14089,8 +14716,11 @@
       <c r="U209">
         <v>2.8633333333333302</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V209">
+        <v>-4.0619649435381699</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20060630</v>
       </c>
@@ -14154,8 +14784,11 @@
       <c r="U210">
         <v>-1.58</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V210">
+        <v>-4.0027821643938397</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>20060929</v>
       </c>
@@ -14219,8 +14852,11 @@
       <c r="U211">
         <v>-1.51</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V211">
+        <v>-4.0097440163185096</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20061229</v>
       </c>
@@ -14284,8 +14920,11 @@
       <c r="U212">
         <v>0.49666666666666698</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V212">
+        <v>-4.0329668436942203</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>20070330</v>
       </c>
@@ -14349,8 +14988,11 @@
       <c r="U213">
         <v>0.456666666666667</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V213">
+        <v>-4.0255278957923402</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20070629</v>
       </c>
@@ -14414,8 +15056,11 @@
       <c r="U214">
         <v>-0.42333333333333301</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V214">
+        <v>-4.0413111426250401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>20070928</v>
       </c>
@@ -14479,8 +15124,11 @@
       <c r="U215">
         <v>-1.64333333333333</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V215">
+        <v>-4.0179419516672903</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>20071231</v>
       </c>
@@ -14544,8 +15192,11 @@
       <c r="U216">
         <v>-0.73333333333333295</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V216">
+        <v>-3.9637962838709599</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>20080331</v>
       </c>
@@ -14609,8 +15260,11 @@
       <c r="U217">
         <v>-6.3333333333333394E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V217">
+        <v>-3.8486630269579298</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>20080630</v>
       </c>
@@ -14674,8 +15328,11 @@
       <c r="U218">
         <v>0.95333333333333303</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V218">
+        <v>-3.8429373365177302</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>20080930</v>
       </c>
@@ -14739,8 +15396,11 @@
       <c r="U219">
         <v>1.63333333333333</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V219">
+        <v>-3.74925985854843</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>20081231</v>
       </c>
@@ -14804,8 +15464,11 @@
       <c r="U220">
         <v>-0.55666666666666698</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V220">
+        <v>-3.4951119960118602</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20090331</v>
       </c>
@@ -14869,8 +15532,11 @@
       <c r="U221">
         <v>7.3333333333333306E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V221">
+        <v>-3.3863311206601798</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>20090630</v>
       </c>
@@ -14934,8 +15600,11 @@
       <c r="U222">
         <v>1.68333333333333</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V222">
+        <v>-3.6060404345439099</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>20090930</v>
       </c>
@@ -14999,8 +15668,11 @@
       <c r="U223">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V223">
+        <v>-3.7893039053945299</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>20091231</v>
       </c>
@@ -15064,8 +15736,11 @@
       <c r="U224">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V224">
+        <v>-3.8637850804071001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>20100331</v>
       </c>
@@ -15129,8 +15804,11 @@
       <c r="U225">
         <v>1.0066666666666699</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V225">
+        <v>-3.9529933402931401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>20100630</v>
       </c>
@@ -15194,8 +15872,11 @@
       <c r="U226">
         <v>1.0166666666666699</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V226">
+        <v>-3.8355903075468198</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>20100930</v>
       </c>
@@ -15259,8 +15940,11 @@
       <c r="U227">
         <v>0.36333333333333301</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V227">
+        <v>-3.8897540408209998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>20101231</v>
       </c>
@@ -15324,8 +16008,11 @@
       <c r="U228">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V228">
+        <v>-3.9415645362777201</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>20110331</v>
       </c>
@@ -15389,8 +16076,11 @@
       <c r="U229">
         <v>0.55333333333333301</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V229">
+        <v>-3.9785845216402498</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>20110630</v>
       </c>
@@ -15454,8 +16144,11 @@
       <c r="U230">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V230">
+        <v>-3.92302795089187</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>20110930</v>
       </c>
@@ -15519,8 +16212,11 @@
       <c r="U231">
         <v>-2.64333333333333</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V231">
+        <v>-3.7639416176474301</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>20111230</v>
       </c>
@@ -15584,8 +16280,11 @@
       <c r="U232">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V232">
+        <v>-3.8579777793083498</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>20120330</v>
       </c>
@@ -15649,8 +16348,11 @@
       <c r="U233">
         <v>-7.3333333333333403E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V233">
+        <v>-3.9246509453748102</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>20120629</v>
       </c>
@@ -15714,8 +16416,11 @@
       <c r="U234">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V234">
+        <v>-3.8386459598066298</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20120928</v>
       </c>
@@ -15779,8 +16484,11 @@
       <c r="U235">
         <v>-0.57333333333333303</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V235">
+        <v>-3.8263500359231202</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>20121231</v>
       </c>
@@ -15844,8 +16552,11 @@
       <c r="U236">
         <v>0.30666666666666698</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V236">
+        <v>-3.6992369344237099</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>20130328</v>
       </c>
@@ -15909,8 +16620,11 @@
       <c r="U237">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V237">
+        <v>-3.77407585925434</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>20130628</v>
       </c>
@@ -15974,8 +16688,11 @@
       <c r="U238">
         <v>0.13666666666666699</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V238">
+        <v>-3.7582773736803401</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>20130930</v>
       </c>
@@ -16039,8 +16756,11 @@
       <c r="U239">
         <v>1.6966666666666701</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V239">
+        <v>-3.7917839007332002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>20131231</v>
       </c>
@@ -16104,8 +16824,11 @@
       <c r="U240">
         <v>-0.26333333333333298</v>
       </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V240">
+        <v>-3.93536710187787</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>20140331</v>
       </c>
@@ -16169,8 +16892,11 @@
       <c r="U241">
         <v>-0.233333333333333</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V241">
+        <v>-3.9116359985062301</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>20140630</v>
       </c>
@@ -16234,8 +16960,11 @@
       <c r="U242">
         <v>-1.0066666666666699</v>
       </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V242">
+        <v>-3.9269590656148998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>20140930</v>
       </c>
@@ -16299,8 +17028,11 @@
       <c r="U243">
         <v>-2.5733333333333301</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V243">
+        <v>-3.9005971357257598</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>20141231</v>
       </c>
@@ -16364,8 +17096,11 @@
       <c r="U244">
         <v>1.55666666666667</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V244">
+        <v>-3.9067949496574501</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>20150331</v>
       </c>
@@ -16429,8 +17164,11 @@
       <c r="U245">
         <v>0.98666666666666702</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V245">
+        <v>-3.8890958378569001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>20150630</v>
       </c>
@@ -16494,8 +17232,11 @@
       <c r="U246">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V246">
+        <v>-3.87634422671684</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>20150930</v>
       </c>
@@ -16559,8 +17300,11 @@
       <c r="U247">
         <v>-2.1</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V247">
+        <v>-3.7805503932329798</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>20151231</v>
       </c>
@@ -16624,8 +17368,11 @@
       <c r="U248">
         <v>-0.38666666666666699</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V248">
+        <v>-3.8187878358127598</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>20160331</v>
       </c>
@@ -16689,8 +17436,11 @@
       <c r="U249">
         <v>-0.56333333333333302</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V249">
+        <v>-3.7990895910297602</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>20160630</v>
       </c>
@@ -16754,8 +17504,11 @@
       <c r="U250">
         <v>0.35666666666666702</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V250">
+        <v>-3.8068236636428998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>20160930</v>
       </c>
@@ -16819,8 +17572,11 @@
       <c r="U251">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V251">
+        <v>-3.8230926454220699</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>20161230</v>
       </c>
@@ -16884,8 +17640,11 @@
       <c r="U252">
         <v>0.39333333333333298</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V252">
+        <v>-3.83865775453752</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>20170331</v>
       </c>
@@ -16949,8 +17708,11 @@
       <c r="U253">
         <v>-0.62</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V253">
+        <v>-3.89986284033963</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>20170630</v>
       </c>
@@ -17014,8 +17776,11 @@
       <c r="U254">
         <v>0.11333333333333299</v>
       </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V254">
+        <v>-3.9030964637348902</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>20170929</v>
       </c>
@@ -17079,8 +17844,11 @@
       <c r="U255">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V255">
+        <v>-3.9135844173095302</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>20171229</v>
       </c>
@@ -17144,8 +17912,11 @@
       <c r="U256">
         <v>-1.29</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V256">
+        <v>-3.9499948103014999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>20180329</v>
       </c>
@@ -17209,8 +17980,11 @@
       <c r="U257">
         <v>0.39333333333333298</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V257">
+        <v>-3.91844557055646</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>20180629</v>
       </c>
@@ -17274,8 +18048,11 @@
       <c r="U258">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V258">
+        <v>-3.93274285667442</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>20180928</v>
       </c>
@@ -17339,8 +18116,11 @@
       <c r="U259">
         <v>-1.1299999999999999</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V259">
+        <v>-3.9589913492504198</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>20181231</v>
       </c>
@@ -17403,6 +18183,9 @@
       </c>
       <c r="U260">
         <v>-2.7266666666666701</v>
+      </c>
+      <c r="V260">
+        <v>-3.7869550896748199</v>
       </c>
     </row>
   </sheetData>
